--- a/analysen/choropleth_GRÜNE.xlsx
+++ b/analysen/choropleth_GRÜNE.xlsx
@@ -2933,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>27.3784139038995</v>
+        <v>27.3094124674038</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.07363752513987</v>
+        <v>-3.14263896163558</v>
       </c>
     </row>
     <row r="3">
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>23.7558925204274</v>
+        <v>23.6979881026091</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.25798704751387</v>
+        <v>-2.31589146533215</v>
       </c>
     </row>
     <row r="4">
@@ -2979,10 +2979,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>19.7585597459785</v>
+        <v>19.7019026852654</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.3984265768856</v>
+        <v>-3.4550836375987</v>
       </c>
     </row>
     <row r="5">
@@ -3002,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>19.1768098506829</v>
+        <v>19.1083532387861</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.65699131400771</v>
+        <v>-3.7254479259045</v>
       </c>
     </row>
     <row r="6">
@@ -3025,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>21.692226068063</v>
+        <v>21.5923951312745</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.58229183015017</v>
+        <v>-3.6821227669386</v>
       </c>
     </row>
     <row r="7">
@@ -3048,10 +3048,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>8.6062941554271</v>
+        <v>8.70695256660169</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.5187058445729</v>
+        <v>-4.41804743339831</v>
       </c>
     </row>
     <row r="8">
@@ -3071,10 +3071,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>9.01639344262295</v>
+        <v>9.03818269695505</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.42938968990717</v>
+        <v>-4.40760043557507</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>9.25142999253917</v>
+        <v>9.23076923076923</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.7923691029143</v>
+        <v>-6.81302986468424</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>9.74162011173184</v>
+        <v>9.68413745227351</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.1233917889822</v>
+        <v>-7.18087444844053</v>
       </c>
     </row>
     <row r="11">
@@ -3140,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>10.5930907979211</v>
+        <v>10.5736954531584</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.82809378371472</v>
+        <v>-5.84748912847747</v>
       </c>
     </row>
     <row r="12">
@@ -3163,10 +3163,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>9.15726609157266</v>
+        <v>9.13907284768212</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.41269539751591</v>
+        <v>-5.43088864140646</v>
       </c>
     </row>
     <row r="13">
@@ -3186,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>12.938816449348</v>
+        <v>12.9172229639519</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.95643447688975</v>
+        <v>-5.97802796228586</v>
       </c>
     </row>
     <row r="14">
@@ -3209,10 +3209,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>8.70598099496926</v>
+        <v>8.69868751745323</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.92713820560176</v>
+        <v>-4.93443168311779</v>
       </c>
     </row>
     <row r="15">
@@ -3278,10 +3278,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>7.36981465136805</v>
+        <v>7.33743409490334</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.06440718870074</v>
+        <v>-8.09678774516545</v>
       </c>
     </row>
     <row r="18">
@@ -3301,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>6.09448250991706</v>
+        <v>6.10549132947977</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.39350001011208</v>
+        <v>-4.38249119054936</v>
       </c>
     </row>
     <row r="19">
@@ -3324,10 +3324,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>10.4407979407979</v>
+        <v>10.4273778920308</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.85818722703969</v>
+        <v>-6.87160727580678</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>10.6453392167678</v>
+        <v>10.5985722130697</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.1101500757234</v>
+        <v>-7.15691707942145</v>
       </c>
     </row>
     <row r="21">
@@ -3370,10 +3370,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>6.48215586307356</v>
+        <v>6.48924535180459</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.03520288437368</v>
+        <v>-4.02811339564265</v>
       </c>
     </row>
     <row r="22">
@@ -3393,10 +3393,10 @@
         <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>13.7325433770631</v>
+        <v>13.6746734091867</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.28837712502899</v>
+        <v>-6.34624709290536</v>
       </c>
     </row>
     <row r="23">
@@ -3416,10 +3416,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>10.5013349154554</v>
+        <v>10.467952982923</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.37699988372377</v>
+        <v>-4.41038181625608</v>
       </c>
     </row>
     <row r="24">
@@ -3439,10 +3439,10 @@
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>10.4132569558101</v>
+        <v>10.3835169318645</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.43660691038978</v>
+        <v>-5.46634693433538</v>
       </c>
     </row>
     <row r="25">
@@ -3462,10 +3462,10 @@
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>14.5891313900688</v>
+        <v>14.572055596196</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.62546088460927</v>
+        <v>-5.64253667848206</v>
       </c>
     </row>
     <row r="26">
@@ -3485,10 +3485,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>9.6871694121203</v>
+        <v>9.66525934861279</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.5661918068818</v>
+        <v>-6.5881018703893</v>
       </c>
     </row>
     <row r="27">
@@ -3508,10 +3508,10 @@
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>9.98946629213483</v>
+        <v>9.97720497983518</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.32389776316471</v>
+        <v>-6.33615907546436</v>
       </c>
     </row>
     <row r="28">
@@ -3531,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>11.0088224012275</v>
+        <v>11.0130468150422</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.97412161063757</v>
+        <v>-6.96989719682283</v>
       </c>
     </row>
     <row r="29">
@@ -3554,10 +3554,10 @@
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>12.0465066207342</v>
+        <v>12.0193340494092</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.75970143295707</v>
+        <v>-5.78687400428204</v>
       </c>
     </row>
     <row r="30">
@@ -3577,10 +3577,10 @@
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>8.60670194003527</v>
+        <v>8.57042500878117</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.10854390361524</v>
+        <v>-6.14482083486934</v>
       </c>
     </row>
     <row r="31">
@@ -3600,10 +3600,10 @@
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>10.4420418776516</v>
+        <v>10.4121179039301</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.33100588076269</v>
+        <v>-7.36092985448413</v>
       </c>
     </row>
     <row r="32">
@@ -3623,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>6.55737704918033</v>
+        <v>6.55260283946123</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.59635539723505</v>
+        <v>-7.60112960695414</v>
       </c>
     </row>
     <row r="33">
@@ -3646,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>10.2681992337165</v>
+        <v>10.2524866105585</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.60827598264859</v>
+        <v>-6.62398860580653</v>
       </c>
     </row>
     <row r="34">
@@ -3669,10 +3669,10 @@
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>10.857296425692</v>
+        <v>10.8165997322624</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.69831869089871</v>
+        <v>-6.73901538432834</v>
       </c>
     </row>
     <row r="35">
@@ -3692,10 +3692,10 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>10.3964170001906</v>
+        <v>10.3657957244656</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.25198391641796</v>
+        <v>-6.28260519214299</v>
       </c>
     </row>
     <row r="36">
@@ -3715,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>9.30537352555701</v>
+        <v>9.26086956521739</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.01365632518926</v>
+        <v>-5.05816028552887</v>
       </c>
     </row>
     <row r="37">
@@ -3761,10 +3761,10 @@
         <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>10.5792682926829</v>
+        <v>10.5087825560267</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.81516606908356</v>
+        <v>-5.88565180573984</v>
       </c>
     </row>
     <row r="39">
@@ -3784,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>8.70659285354806</v>
+        <v>8.71097683786506</v>
       </c>
       <c r="G39" t="n">
-        <v>-9.2643477531305</v>
+        <v>-9.2599637688135</v>
       </c>
     </row>
     <row r="40">
@@ -3807,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>8.51713607058025</v>
+        <v>8.50271002710027</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.00229133228273</v>
+        <v>-6.01671737576271</v>
       </c>
     </row>
     <row r="41">
@@ -3830,10 +3830,10 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>10.1668806161746</v>
+        <v>10.1304681504221</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.67193427917742</v>
+        <v>-6.70834674492989</v>
       </c>
     </row>
     <row r="42">
@@ -3853,10 +3853,10 @@
         <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>7.37891737891738</v>
+        <v>7.35377626348666</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.7412151811489</v>
+        <v>-7.76635629657962</v>
       </c>
     </row>
     <row r="43">
@@ -3899,10 +3899,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>9.28391507736596</v>
+        <v>9.26724137931035</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.74488371005352</v>
+        <v>-6.76155740810913</v>
       </c>
     </row>
     <row r="45">
@@ -3922,10 +3922,10 @@
         <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>9.89255279733234</v>
+        <v>9.90356083086053</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.707519850688</v>
+        <v>-6.69651181715981</v>
       </c>
     </row>
     <row r="46">
@@ -3945,10 +3945,10 @@
         <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>11.3149847094801</v>
+        <v>11.3080684596577</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.13828033533422</v>
+        <v>-5.14519658515664</v>
       </c>
     </row>
     <row r="47">
@@ -3968,10 +3968,10 @@
         <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>10.653197107106</v>
+        <v>10.6937082277022</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.50901686198473</v>
+        <v>-7.46850574138846</v>
       </c>
     </row>
     <row r="48">
@@ -3991,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>8.08625336927224</v>
+        <v>8.05585392051558</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.257064603078</v>
+        <v>-6.28746405183466</v>
       </c>
     </row>
     <row r="49">
@@ -4014,10 +4014,10 @@
         <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>6.88</v>
+        <v>6.89839572192513</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.27824541921155</v>
+        <v>-8.25984969728642</v>
       </c>
     </row>
     <row r="50">
@@ -4083,10 +4083,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>8.50458425545368</v>
+        <v>8.5099652008858</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.03212789529356</v>
+        <v>-8.02674694986144</v>
       </c>
     </row>
     <row r="53">
@@ -4106,10 +4106,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>11.623178583531</v>
+        <v>11.5410497981157</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.77251455240439</v>
+        <v>-5.85464333781965</v>
       </c>
     </row>
     <row r="54">
@@ -4129,10 +4129,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>10.8620090371915</v>
+        <v>10.8225108225108</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.88824171506525</v>
+        <v>-5.92773992974594</v>
       </c>
     </row>
     <row r="55">
@@ -4152,10 +4152,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>10.8024691358025</v>
+        <v>10.7590446914164</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.3362381989833</v>
+        <v>-6.37966264336936</v>
       </c>
     </row>
     <row r="56">
@@ -4175,10 +4175,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>9.89262453793346</v>
+        <v>9.88740323715693</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.96725928533709</v>
+        <v>-5.97248058611362</v>
       </c>
     </row>
     <row r="57">
@@ -4198,10 +4198,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>9.82264665757162</v>
+        <v>9.78640776699029</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.96817275052179</v>
+        <v>-7.00441164110313</v>
       </c>
     </row>
     <row r="58">
@@ -4221,10 +4221,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>11.2985359643539</v>
+        <v>11.2591183000317</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.26197358978621</v>
+        <v>-5.30139125410841</v>
       </c>
     </row>
     <row r="59">
@@ -4244,10 +4244,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>11.6178067318132</v>
+        <v>11.5863562533839</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.27699029505925</v>
+        <v>-4.30844077348863</v>
       </c>
     </row>
     <row r="60">
@@ -4270,7 +4270,7 @@
         <v>8.81037567084079</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.31211061800748</v>
+        <v>-5.31211061800747</v>
       </c>
     </row>
     <row r="61">
@@ -4290,10 +4290,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>11.781206171108</v>
+        <v>11.7746005046257</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.95459160002546</v>
+        <v>-5.96119726650772</v>
       </c>
     </row>
     <row r="62">
@@ -4313,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>10.075026795284</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.09591337565614</v>
+        <v>-5.17094017094017</v>
       </c>
     </row>
     <row r="63">
@@ -4336,10 +4336,10 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>11.7142857142857</v>
+        <v>11.7031398667935</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.04212454212454</v>
+        <v>-6.05327038961673</v>
       </c>
     </row>
     <row r="64">
@@ -4359,10 +4359,10 @@
         <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>8.11667723525682</v>
+        <v>8.09614168247944</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.19541639283161</v>
+        <v>-7.21595194560898</v>
       </c>
     </row>
     <row r="65">
@@ -4382,10 +4382,10 @@
         <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>7.95258088416893</v>
+        <v>7.95847750865052</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.16415863755902</v>
+        <v>-6.15826201307743</v>
       </c>
     </row>
     <row r="66">
@@ -4405,10 +4405,10 @@
         <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>6.45619573796369</v>
+        <v>6.44094488188976</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.40365873846782</v>
+        <v>-6.41890959454174</v>
       </c>
     </row>
     <row r="67">
@@ -4428,10 +4428,10 @@
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>6.34920634920635</v>
+        <v>6.3133097762073</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.50648470770422</v>
+        <v>-6.54238128070327</v>
       </c>
     </row>
     <row r="68">
@@ -4451,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="F68" t="n">
-        <v>8.10185185185185</v>
+        <v>8.06916426512968</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.20295533251159</v>
+        <v>-3.23564291923376</v>
       </c>
     </row>
     <row r="69">
@@ -4474,10 +4474,10 @@
         <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>8.87565152643336</v>
+        <v>8.83617494440326</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.52633582677351</v>
+        <v>-6.5658124088036</v>
       </c>
     </row>
     <row r="70">
@@ -4497,10 +4497,10 @@
         <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>9.78593272171254</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.7220886686618</v>
+        <v>-5.75192382939872</v>
       </c>
     </row>
     <row r="71">
@@ -4520,10 +4520,10 @@
         <v>9</v>
       </c>
       <c r="F71" t="n">
-        <v>6.44913627639156</v>
+        <v>6.44418872266974</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.62040808811684</v>
+        <v>-6.62535564183866</v>
       </c>
     </row>
     <row r="72">
@@ -4543,10 +4543,10 @@
         <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>7.07236842105263</v>
+        <v>7.0801317233809</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.17453124072866</v>
+        <v>-6.16676793840039</v>
       </c>
     </row>
     <row r="73">
@@ -4566,10 +4566,10 @@
         <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>5.58798999165972</v>
+        <v>5.56786703601108</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.96781609627715</v>
+        <v>-5.98793905192579</v>
       </c>
     </row>
     <row r="74">
@@ -4589,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>6.36160714285714</v>
+        <v>6.33685380767093</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.53220849308218</v>
+        <v>-6.5569618282684</v>
       </c>
     </row>
     <row r="75">
@@ -4612,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>6.75364543361474</v>
+        <v>6.7175572519084</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.33183724877289</v>
+        <v>-5.36792543047922</v>
       </c>
     </row>
     <row r="76">
@@ -4635,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>5.70944036178632</v>
+        <v>5.69977426636569</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.92530351349208</v>
+        <v>-4.93496960891271</v>
       </c>
     </row>
     <row r="77">
@@ -4658,10 +4658,10 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>8.85767355467843</v>
+        <v>8.83306320907618</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.04400851118274</v>
+        <v>-6.068618856785</v>
       </c>
     </row>
     <row r="78">
@@ -4681,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>3.52112676056338</v>
+        <v>3.52733686067019</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.94026683642344</v>
+        <v>-1.93405673631662</v>
       </c>
     </row>
     <row r="79">
@@ -4704,10 +4704,10 @@
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>5.9871703492516</v>
+        <v>5.98930481283422</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.49893561592068</v>
+        <v>-6.49680115233806</v>
       </c>
     </row>
     <row r="80">
@@ -4727,10 +4727,10 @@
         <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>10.7246376811594</v>
+        <v>10.6730769230769</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.8962902556619</v>
+        <v>-6.9478510137444</v>
       </c>
     </row>
     <row r="81">
@@ -4750,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>9.732894255397</v>
+        <v>9.64816829887559</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.84142031891757</v>
+        <v>-4.92614627543898</v>
       </c>
     </row>
     <row r="82">
@@ -4773,10 +4773,10 @@
         <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>10.8177172061329</v>
+        <v>10.7172995780591</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.56805058412929</v>
+        <v>-5.6684682122031</v>
       </c>
     </row>
     <row r="83">
@@ -4796,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>10.8050847457627</v>
+        <v>10.8433734939759</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.95807314897413</v>
+        <v>-6.91978440076094</v>
       </c>
     </row>
     <row r="84">
@@ -4819,10 +4819,10 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>10.6600110926234</v>
+        <v>10.6246545052515</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.98637758119586</v>
+        <v>-6.02173416856775</v>
       </c>
     </row>
     <row r="85">
@@ -4842,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>6.56200941915228</v>
+        <v>6.54351909830933</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.50420133620986</v>
+        <v>-4.52269165705281</v>
       </c>
     </row>
     <row r="86">
@@ -4865,10 +4865,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>8.44827586206897</v>
+        <v>8.4192439862543</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.19363395225464</v>
+        <v>-6.22266582806931</v>
       </c>
     </row>
     <row r="87">
@@ -4888,10 +4888,10 @@
         <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>9.34712807706029</v>
+        <v>9.3338083363021</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.93466383045416</v>
+        <v>-5.94798357121235</v>
       </c>
     </row>
     <row r="88">
@@ -4911,10 +4911,10 @@
         <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>16.600790513834</v>
+        <v>16.5191740412979</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.55607223126405</v>
+        <v>-5.6376887038001</v>
       </c>
     </row>
     <row r="89">
@@ -4934,10 +4934,10 @@
         <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>7.64732343679712</v>
+        <v>7.67841011743451</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.16581916490158</v>
+        <v>-6.1347324842642</v>
       </c>
     </row>
     <row r="90">
@@ -4957,10 +4957,10 @@
         <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>16.5651795700261</v>
+        <v>16.6292415169661</v>
       </c>
       <c r="G90" t="n">
-        <v>-6.26897106495441</v>
+        <v>-6.20490911801444</v>
       </c>
     </row>
     <row r="91">
@@ -4980,10 +4980,10 @@
         <v>9</v>
       </c>
       <c r="F91" t="n">
-        <v>6.33433283358321</v>
+        <v>6.34861006761833</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.70835009324606</v>
+        <v>-5.69407285921094</v>
       </c>
     </row>
     <row r="92">
@@ -5003,10 +5003,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>6.99112238427394</v>
+        <v>6.9833729216152</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.38272092232693</v>
+        <v>-7.39047038498566</v>
       </c>
     </row>
     <row r="93">
@@ -5026,10 +5026,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>5.36231884057971</v>
+        <v>5.37010159651669</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.20070636950432</v>
+        <v>-2.19292361356734</v>
       </c>
     </row>
     <row r="94">
@@ -5049,10 +5049,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>5.28830837846448</v>
+        <v>5.27821939586646</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.63501845714306</v>
+        <v>-6.64510743974108</v>
       </c>
     </row>
     <row r="95">
@@ -5072,10 +5072,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>5.35006605019815</v>
+        <v>5.36423841059603</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.46905539683027</v>
+        <v>-4.4548830364324</v>
       </c>
     </row>
     <row r="96">
@@ -5095,10 +5095,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>5.57993730407524</v>
+        <v>5.55902560899438</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.0342309438691</v>
+        <v>-4.05514263894996</v>
       </c>
     </row>
     <row r="97">
@@ -5118,10 +5118,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>6.20689655172414</v>
+        <v>6.2026188835286</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.96025042233926</v>
+        <v>-4.9645280905348</v>
       </c>
     </row>
     <row r="98">
@@ -5141,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>10.2185469580626</v>
+        <v>10.1929591987038</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.88522952336201</v>
+        <v>-5.91081728272084</v>
       </c>
     </row>
     <row r="99">
@@ -5164,10 +5164,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>5.67732662594323</v>
+        <v>5.66308243727599</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.3372400164457</v>
+        <v>-4.35148420511294</v>
       </c>
     </row>
     <row r="100">
@@ -5187,10 +5187,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>8.74006810442679</v>
+        <v>8.70056497175141</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.90101541701791</v>
+        <v>-3.94051854969328</v>
       </c>
     </row>
     <row r="101">
@@ -5210,10 +5210,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>6.16860863605209</v>
+        <v>6.07287449392713</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.45799501013292</v>
+        <v>-6.55372915225789</v>
       </c>
     </row>
     <row r="102">
@@ -5233,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>8.65013774104683</v>
+        <v>8.65968008825152</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.38786443050583</v>
+        <v>-6.37832208330115</v>
       </c>
     </row>
     <row r="103">
@@ -5256,10 +5256,10 @@
         <v>9</v>
       </c>
       <c r="F103" t="n">
-        <v>4.47677672076105</v>
+        <v>4.46179587283882</v>
       </c>
       <c r="G103" t="n">
-        <v>-6.21504717861002</v>
+        <v>-6.23002802653225</v>
       </c>
     </row>
     <row r="104">
@@ -5279,10 +5279,10 @@
         <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>4.68130124305739</v>
+        <v>4.67635402906209</v>
       </c>
       <c r="G104" t="n">
-        <v>-5.78810803964303</v>
+        <v>-5.79305525363833</v>
       </c>
     </row>
     <row r="105">
@@ -5302,10 +5302,10 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>7.11056309083436</v>
+        <v>7.1047227926078</v>
       </c>
       <c r="G105" t="n">
-        <v>-4.49946927162519</v>
+        <v>-4.50530956985174</v>
       </c>
     </row>
     <row r="106">
@@ -5325,10 +5325,10 @@
         <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>6.79816836914406</v>
+        <v>6.7719298245614</v>
       </c>
       <c r="G106" t="n">
-        <v>-6.78824521726952</v>
+        <v>-6.81448376185218</v>
       </c>
     </row>
     <row r="107">
@@ -5348,10 +5348,10 @@
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>4.68468468468468</v>
+        <v>4.71869328493648</v>
       </c>
       <c r="G107" t="n">
-        <v>-6.96256989102247</v>
+        <v>-6.92856129077068</v>
       </c>
     </row>
     <row r="108">
@@ -5371,10 +5371,10 @@
         <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>6.87001923605386</v>
+        <v>6.83620453923981</v>
       </c>
       <c r="G108" t="n">
-        <v>-5.87004027165509</v>
+        <v>-5.90385496846914</v>
       </c>
     </row>
     <row r="109">
@@ -5394,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>5.14918190567854</v>
+        <v>5.15166104959076</v>
       </c>
       <c r="G109" t="n">
-        <v>-5.27875710071595</v>
+        <v>-5.27627795680373</v>
       </c>
     </row>
     <row r="110">
@@ -5417,10 +5417,10 @@
         <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>5.9748427672956</v>
+        <v>5.96234309623431</v>
       </c>
       <c r="G110" t="n">
-        <v>-2.74210140508442</v>
+        <v>-2.75460107614571</v>
       </c>
     </row>
     <row r="111">
@@ -5440,10 +5440,10 @@
         <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>9.97484672221349</v>
+        <v>9.93579705606013</v>
       </c>
       <c r="G111" t="n">
-        <v>-5.58996736472936</v>
+        <v>-5.62901703088272</v>
       </c>
     </row>
     <row r="112">
@@ -5463,10 +5463,10 @@
         <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>6.97674418604651</v>
+        <v>7.02127659574468</v>
       </c>
       <c r="G112" t="n">
-        <v>-6.98158914728682</v>
+        <v>-6.93705673758865</v>
       </c>
     </row>
     <row r="113">
@@ -5486,10 +5486,10 @@
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>4.99265785609398</v>
+        <v>4.98168498168498</v>
       </c>
       <c r="G113" t="n">
-        <v>-4.02493745182391</v>
+        <v>-4.03591032623291</v>
       </c>
     </row>
     <row r="114">
@@ -5509,10 +5509,10 @@
         <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>8.39779005524862</v>
+        <v>8.36543753439736</v>
       </c>
       <c r="G114" t="n">
-        <v>-5.34440188115115</v>
+        <v>-5.37675440200241</v>
       </c>
     </row>
     <row r="115">
@@ -5532,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>9.16713247624371</v>
+        <v>9.17225950782998</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.54841004575042</v>
+        <v>-7.54328301416416</v>
       </c>
     </row>
     <row r="116">
@@ -5555,10 +5555,10 @@
         <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>3.53862776877364</v>
+        <v>3.53290183387271</v>
       </c>
       <c r="G116" t="n">
-        <v>-5.43677098764702</v>
+        <v>-5.44249692254795</v>
       </c>
     </row>
     <row r="117">
@@ -5578,10 +5578,10 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>4.41834451901566</v>
+        <v>4.38645197112715</v>
       </c>
       <c r="G117" t="n">
-        <v>-3.62423383698671</v>
+        <v>-3.65612638487521</v>
       </c>
     </row>
     <row r="118">
@@ -5601,10 +5601,10 @@
         <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>6.72975814931651</v>
+        <v>6.69106116048092</v>
       </c>
       <c r="G118" t="n">
-        <v>-5.40087948676436</v>
+        <v>-5.43957647559995</v>
       </c>
     </row>
     <row r="119">
@@ -5624,10 +5624,10 @@
         <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>6.09137055837564</v>
+        <v>6.07492406344921</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.38231365215068</v>
+        <v>-7.39876014707711</v>
       </c>
     </row>
     <row r="120">
@@ -5647,10 +5647,10 @@
         <v>9</v>
       </c>
       <c r="F120" t="n">
-        <v>4.1553748870822</v>
+        <v>4.15725259828287</v>
       </c>
       <c r="G120" t="n">
-        <v>-3.01802178750212</v>
+        <v>-3.01614407630145</v>
       </c>
     </row>
     <row r="121">
@@ -5670,10 +5670,10 @@
         <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>5.98758671047828</v>
+        <v>6.00073179656056</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.07394594335336</v>
+        <v>-7.06080085727108</v>
       </c>
     </row>
     <row r="122">
@@ -5693,10 +5693,10 @@
         <v>9</v>
       </c>
       <c r="F122" t="n">
-        <v>7.36196319018405</v>
+        <v>7.29684908789386</v>
       </c>
       <c r="G122" t="n">
-        <v>-3.72348715623627</v>
+        <v>-3.78860125852646</v>
       </c>
     </row>
     <row r="123">
@@ -5716,10 +5716,10 @@
         <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>5.71207030240372</v>
+        <v>5.6929417825863</v>
       </c>
       <c r="G123" t="n">
-        <v>-4.3068332892787</v>
+        <v>-4.32596180909612</v>
       </c>
     </row>
     <row r="124">
@@ -5739,10 +5739,10 @@
         <v>9</v>
       </c>
       <c r="F124" t="n">
-        <v>7.98387096774194</v>
+        <v>7.94670091507465</v>
       </c>
       <c r="G124" t="n">
-        <v>-5.59286366162427</v>
+        <v>-5.63003371429156</v>
       </c>
     </row>
     <row r="125">
@@ -5762,10 +5762,10 @@
         <v>9</v>
       </c>
       <c r="F125" t="n">
-        <v>7.21428571428571</v>
+        <v>7.16058135412974</v>
       </c>
       <c r="G125" t="n">
-        <v>-5.08688077564006</v>
+        <v>-5.14058513579603</v>
       </c>
     </row>
     <row r="126">
@@ -5785,10 +5785,10 @@
         <v>9</v>
       </c>
       <c r="F126" t="n">
-        <v>16.2305122494432</v>
+        <v>16.140642303433</v>
       </c>
       <c r="G126" t="n">
-        <v>-2.93116439726338</v>
+        <v>-3.02103434327359</v>
       </c>
     </row>
     <row r="127">
@@ -5808,10 +5808,10 @@
         <v>9</v>
       </c>
       <c r="F127" t="n">
-        <v>6.77624958067763</v>
+        <v>6.74795390011692</v>
       </c>
       <c r="G127" t="n">
-        <v>-4.59160334561686</v>
+        <v>-4.61989902617757</v>
       </c>
     </row>
     <row r="128">
@@ -5831,10 +5831,10 @@
         <v>9</v>
       </c>
       <c r="F128" t="n">
-        <v>12.5</v>
+        <v>12.4611197511664</v>
       </c>
       <c r="G128" t="n">
-        <v>-3.80901287553648</v>
+        <v>-3.84789312437007</v>
       </c>
     </row>
     <row r="129">
@@ -5854,10 +5854,10 @@
         <v>9</v>
       </c>
       <c r="F129" t="n">
-        <v>13.050706566916</v>
+        <v>13.0615640599002</v>
       </c>
       <c r="G129" t="n">
-        <v>-4.20222475636704</v>
+        <v>-4.19136726338292</v>
       </c>
     </row>
     <row r="130">
@@ -5877,10 +5877,10 @@
         <v>9</v>
       </c>
       <c r="F130" t="n">
-        <v>7.93976728268309</v>
+        <v>7.91538723984988</v>
       </c>
       <c r="G130" t="n">
-        <v>-5.32036785245204</v>
+        <v>-5.34474789528525</v>
       </c>
     </row>
     <row r="131">
@@ -5900,10 +5900,10 @@
         <v>9</v>
       </c>
       <c r="F131" t="n">
-        <v>14.004203888597</v>
+        <v>13.9419304211352</v>
       </c>
       <c r="G131" t="n">
-        <v>-4.63117906717435</v>
+        <v>-4.69345253463607</v>
       </c>
     </row>
     <row r="132">
@@ -5923,10 +5923,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>9.89717223650386</v>
+        <v>9.85284708893154</v>
       </c>
       <c r="G132" t="n">
-        <v>-2.42893581914157</v>
+        <v>-2.47326096671388</v>
       </c>
     </row>
     <row r="133">
@@ -5946,10 +5946,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>9.5063025210084</v>
+        <v>9.49632738719832</v>
       </c>
       <c r="G133" t="n">
-        <v>-4.60313953907743</v>
+        <v>-4.61311467288752</v>
       </c>
     </row>
     <row r="134">
@@ -5969,10 +5969,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>11.224907824662</v>
+        <v>11.1518111518112</v>
       </c>
       <c r="G134" t="n">
-        <v>-4.55106481321741</v>
+        <v>-4.62416148606828</v>
       </c>
     </row>
     <row r="135">
@@ -5992,10 +5992,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>8.00203873598369</v>
+        <v>8.00611932687404</v>
       </c>
       <c r="G135" t="n">
-        <v>-5.31415663676695</v>
+        <v>-5.3100760458766</v>
       </c>
     </row>
     <row r="136">
@@ -6015,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>15.2294018736488</v>
+        <v>15.1747247486836</v>
       </c>
       <c r="G136" t="n">
-        <v>-4.7895734584195</v>
+        <v>-4.84425058338473</v>
       </c>
     </row>
     <row r="137">
@@ -6038,10 +6038,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>12.0987654320988</v>
+        <v>12.039312039312</v>
       </c>
       <c r="G137" t="n">
-        <v>-5.6845079491962</v>
+        <v>-5.74396134198293</v>
       </c>
     </row>
     <row r="138">
@@ -6061,10 +6061,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>9.71337579617834</v>
+        <v>9.69793322734499</v>
       </c>
       <c r="G138" t="n">
-        <v>-2.96164262681355</v>
+        <v>-2.9770851956469</v>
       </c>
     </row>
     <row r="139">
@@ -6084,10 +6084,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>9.82599795291709</v>
+        <v>9.83606557377049</v>
       </c>
       <c r="G139" t="n">
-        <v>-3.46684955045673</v>
+        <v>-3.45678192960333</v>
       </c>
     </row>
     <row r="140">
@@ -6107,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>10.5913084777962</v>
+        <v>10.6152564560276</v>
       </c>
       <c r="G140" t="n">
-        <v>-4.58247272117739</v>
+        <v>-4.55852474294603</v>
       </c>
     </row>
     <row r="141">
@@ -6130,10 +6130,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>25.7698048537785</v>
+        <v>25.7306874948252</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.74583756088153</v>
+        <v>-0.784954919834906</v>
       </c>
     </row>
     <row r="142">
@@ -6153,10 +6153,10 @@
         <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>5.79748163693599</v>
+        <v>5.78988734608331</v>
       </c>
       <c r="G142" t="n">
-        <v>-4.27277597430523</v>
+        <v>-4.28037026515791</v>
       </c>
     </row>
     <row r="143">
@@ -6176,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="F143" t="n">
-        <v>5.29218647406435</v>
+        <v>5.32716457369465</v>
       </c>
       <c r="G143" t="n">
-        <v>-6.17709963550953</v>
+        <v>-6.14212153587923</v>
       </c>
     </row>
     <row r="144">
@@ -6199,10 +6199,10 @@
         <v>9</v>
       </c>
       <c r="F144" t="n">
-        <v>7.23951285520974</v>
+        <v>7.27396329027872</v>
       </c>
       <c r="G144" t="n">
-        <v>-6.08447031449573</v>
+        <v>-6.05001987942675</v>
       </c>
     </row>
     <row r="145">
@@ -6222,10 +6222,10 @@
         <v>9</v>
       </c>
       <c r="F145" t="n">
-        <v>12.7435851426521</v>
+        <v>12.7417560730561</v>
       </c>
       <c r="G145" t="n">
-        <v>-5.42912642902323</v>
+        <v>-5.43095549861922</v>
       </c>
     </row>
     <row r="146">
@@ -6245,10 +6245,10 @@
         <v>9</v>
       </c>
       <c r="F146" t="n">
-        <v>6.59144893111639</v>
+        <v>6.5823285234236</v>
       </c>
       <c r="G146" t="n">
-        <v>-8.6146335018568</v>
+        <v>-8.62375390954959</v>
       </c>
     </row>
     <row r="147">
@@ -6268,10 +6268,10 @@
         <v>9</v>
       </c>
       <c r="F147" t="n">
-        <v>8.24610374505699</v>
+        <v>8.25955265610438</v>
       </c>
       <c r="G147" t="n">
-        <v>-4.88225725564444</v>
+        <v>-4.86880834459705</v>
       </c>
     </row>
     <row r="148">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="F148" t="n">
-        <v>5.70924072984108</v>
+        <v>5.6924882629108</v>
       </c>
       <c r="G148" t="n">
-        <v>-5.9090165315697</v>
+        <v>-5.92576899849999</v>
       </c>
     </row>
     <row r="149">
@@ -6314,10 +6314,10 @@
         <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>10.3166986564299</v>
+        <v>10.2576335877863</v>
       </c>
       <c r="G149" t="n">
-        <v>-7.49626522283775</v>
+        <v>-7.55533029148143</v>
       </c>
     </row>
     <row r="150">
@@ -6337,10 +6337,10 @@
         <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>6.74444039372949</v>
+        <v>6.72238372093023</v>
       </c>
       <c r="G150" t="n">
-        <v>-6.9683174366754</v>
+        <v>-6.99037410947466</v>
       </c>
     </row>
     <row r="151">
@@ -6360,10 +6360,10 @@
         <v>9</v>
       </c>
       <c r="F151" t="n">
-        <v>6.31364562118126</v>
+        <v>6.30508474576271</v>
       </c>
       <c r="G151" t="n">
-        <v>-5.56055206816405</v>
+        <v>-5.5691129435826</v>
       </c>
     </row>
     <row r="152">
@@ -6406,10 +6406,10 @@
         <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>7.03912868091973</v>
+        <v>7.02778896496174</v>
       </c>
       <c r="G153" t="n">
-        <v>-6.41378611728655</v>
+        <v>-6.42512583324454</v>
       </c>
     </row>
     <row r="154">
@@ -6429,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>8.72317973971157</v>
+        <v>8.71398453970485</v>
       </c>
       <c r="G154" t="n">
-        <v>-5.89220487567304</v>
+        <v>-5.90140007567977</v>
       </c>
     </row>
     <row r="155">
@@ -6452,10 +6452,10 @@
         <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>6.63852647735994</v>
+        <v>6.63089306247604</v>
       </c>
       <c r="G155" t="n">
-        <v>-5.80960630272305</v>
+        <v>-5.81723971760694</v>
       </c>
     </row>
     <row r="156">
@@ -6475,10 +6475,10 @@
         <v>9</v>
       </c>
       <c r="F156" t="n">
-        <v>8.77604166666667</v>
+        <v>8.75552091452325</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.16323727071474</v>
+        <v>-7.18375802285815</v>
       </c>
     </row>
     <row r="157">
@@ -6498,10 +6498,10 @@
         <v>9</v>
       </c>
       <c r="F157" t="n">
-        <v>5.7896665445218</v>
+        <v>5.76221735959154</v>
       </c>
       <c r="G157" t="n">
-        <v>-6.08214700245562</v>
+        <v>-6.10959618738588</v>
       </c>
     </row>
     <row r="158">
@@ -6521,10 +6521,10 @@
         <v>9</v>
       </c>
       <c r="F158" t="n">
-        <v>4.59924690693921</v>
+        <v>4.60172228202368</v>
       </c>
       <c r="G158" t="n">
-        <v>-6.68846861030216</v>
+        <v>-6.6859932352177</v>
       </c>
     </row>
     <row r="159">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="F159" t="n">
-        <v>10.6407454273553</v>
+        <v>10.645643917597</v>
       </c>
       <c r="G159" t="n">
-        <v>-7.56559307567905</v>
+        <v>-7.56069458543743</v>
       </c>
     </row>
     <row r="160">
@@ -6567,10 +6567,10 @@
         <v>9</v>
       </c>
       <c r="F160" t="n">
-        <v>5.38540949759119</v>
+        <v>5.39469148569459</v>
       </c>
       <c r="G160" t="n">
-        <v>-6.13087272764626</v>
+        <v>-6.12159073954286</v>
       </c>
     </row>
     <row r="161">
@@ -6590,10 +6590,10 @@
         <v>9</v>
       </c>
       <c r="F161" t="n">
-        <v>11.1632060727841</v>
+        <v>11.1148160497944</v>
       </c>
       <c r="G161" t="n">
-        <v>-5.42963890166224</v>
+        <v>-5.47802892465196</v>
       </c>
     </row>
     <row r="162">
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>9.91271820448878</v>
+        <v>9.88191423244251</v>
       </c>
       <c r="G162" t="n">
-        <v>-8.24568488630324</v>
+        <v>-8.2764888583495</v>
       </c>
     </row>
     <row r="163">
@@ -6636,10 +6636,10 @@
         <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>6.95012264922322</v>
+        <v>6.96150696150696</v>
       </c>
       <c r="G163" t="n">
-        <v>-4.75698675903561</v>
+        <v>-4.74560244675187</v>
       </c>
     </row>
     <row r="164">
@@ -6659,10 +6659,10 @@
         <v>9</v>
       </c>
       <c r="F164" t="n">
-        <v>6.08695652173913</v>
+        <v>6.08365019011407</v>
       </c>
       <c r="G164" t="n">
-        <v>-6.2551789547247</v>
+        <v>-6.25848528634977</v>
       </c>
     </row>
     <row r="165">
@@ -6682,10 +6682,10 @@
         <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>5.25635501938819</v>
+        <v>5.22931847406772</v>
       </c>
       <c r="G165" t="n">
-        <v>-4.27384632289368</v>
+        <v>-4.30088286821416</v>
       </c>
     </row>
     <row r="166">
@@ -6705,10 +6705,10 @@
         <v>9</v>
       </c>
       <c r="F166" t="n">
-        <v>8.00154619250097</v>
+        <v>7.92799693603983</v>
       </c>
       <c r="G166" t="n">
-        <v>-5.4693275939068</v>
+        <v>-5.54287685036794</v>
       </c>
     </row>
     <row r="167">
@@ -6728,10 +6728,10 @@
         <v>9</v>
       </c>
       <c r="F167" t="n">
-        <v>7.58562723261189</v>
+        <v>7.54362135618013</v>
       </c>
       <c r="G167" t="n">
-        <v>-4.17842765893304</v>
+        <v>-4.2204335353648</v>
       </c>
     </row>
     <row r="168">
@@ -6751,10 +6751,10 @@
         <v>9</v>
       </c>
       <c r="F168" t="n">
-        <v>6.2982998454405</v>
+        <v>6.27647285329226</v>
       </c>
       <c r="G168" t="n">
-        <v>-4.75900443220277</v>
+        <v>-4.780831424351</v>
       </c>
     </row>
     <row r="169">
@@ -6774,10 +6774,10 @@
         <v>9</v>
       </c>
       <c r="F169" t="n">
-        <v>7.84180790960452</v>
+        <v>7.80652418447694</v>
       </c>
       <c r="G169" t="n">
-        <v>-5.64757432977772</v>
+        <v>-5.6828580549053</v>
       </c>
     </row>
     <row r="170">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="F170" t="n">
-        <v>7.70333947961483</v>
+        <v>7.68601798855274</v>
       </c>
       <c r="G170" t="n">
-        <v>-5.83066275003957</v>
+        <v>-5.84798424110167</v>
       </c>
     </row>
     <row r="171">
@@ -6820,10 +6820,10 @@
         <v>9</v>
       </c>
       <c r="F171" t="n">
-        <v>9.70956719817768</v>
+        <v>9.67925063866023</v>
       </c>
       <c r="G171" t="n">
-        <v>-2.80875587423511</v>
+        <v>-2.83907243375255</v>
       </c>
     </row>
     <row r="172">
@@ -6843,10 +6843,10 @@
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>6.36263332107392</v>
+        <v>6.32926829268293</v>
       </c>
       <c r="G172" t="n">
-        <v>-4.76689243109334</v>
+        <v>-4.80025745948433</v>
       </c>
     </row>
     <row r="173">
@@ -6866,10 +6866,10 @@
         <v>9</v>
       </c>
       <c r="F173" t="n">
-        <v>12.0268428226906</v>
+        <v>11.9778613199666</v>
       </c>
       <c r="G173" t="n">
-        <v>-3.41755297415706</v>
+        <v>-3.46653447688105</v>
       </c>
     </row>
     <row r="174">
@@ -6889,10 +6889,10 @@
         <v>9</v>
       </c>
       <c r="F174" t="n">
-        <v>8.07404489956676</v>
+        <v>8.03291536050157</v>
       </c>
       <c r="G174" t="n">
-        <v>-5.19550584918532</v>
+        <v>-5.23663538825051</v>
       </c>
     </row>
     <row r="175">
@@ -6912,10 +6912,10 @@
         <v>9</v>
       </c>
       <c r="F175" t="n">
-        <v>8.21325648414986</v>
+        <v>8.12544547398432</v>
       </c>
       <c r="G175" t="n">
-        <v>-5.76688102539942</v>
+        <v>-5.85469203556496</v>
       </c>
     </row>
     <row r="176">
@@ -6935,10 +6935,10 @@
         <v>9</v>
       </c>
       <c r="F176" t="n">
-        <v>10.7479784366577</v>
+        <v>10.7046979865772</v>
       </c>
       <c r="G176" t="n">
-        <v>-3.25061112610678</v>
+        <v>-3.29389157618727</v>
       </c>
     </row>
     <row r="177">
@@ -6958,10 +6958,10 @@
         <v>9</v>
       </c>
       <c r="F177" t="n">
-        <v>8.8145896656535</v>
+        <v>8.78935847785823</v>
       </c>
       <c r="G177" t="n">
-        <v>-5.56554609711893</v>
+        <v>-5.59077728491419</v>
       </c>
     </row>
     <row r="178">
@@ -6981,10 +6981,10 @@
         <v>9</v>
       </c>
       <c r="F178" t="n">
-        <v>11.0970311368573</v>
+        <v>11.0749774164408</v>
       </c>
       <c r="G178" t="n">
-        <v>-5.00035258407288</v>
+        <v>-5.0224063044894</v>
       </c>
     </row>
     <row r="179">
@@ -7004,10 +7004,10 @@
         <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>8.89679715302491</v>
+        <v>8.8904694167852</v>
       </c>
       <c r="G179" t="n">
-        <v>-6.28177427554652</v>
+        <v>-6.28810201178622</v>
       </c>
     </row>
     <row r="180">
@@ -7027,10 +7027,10 @@
         <v>9</v>
       </c>
       <c r="F180" t="n">
-        <v>13.6021872863978</v>
+        <v>13.5743519781719</v>
       </c>
       <c r="G180" t="n">
-        <v>-3.97508923824713</v>
+        <v>-4.00292454647305</v>
       </c>
     </row>
     <row r="181">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="F181" t="n">
-        <v>13.1331652532661</v>
+        <v>13.0523917995444</v>
       </c>
       <c r="G181" t="n">
-        <v>-5.86365726148651</v>
+        <v>-5.94443071520819</v>
       </c>
     </row>
     <row r="182">
@@ -7073,10 +7073,10 @@
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>9.43994364212751</v>
+        <v>9.38704028021016</v>
       </c>
       <c r="G182" t="n">
-        <v>-4.42480890792916</v>
+        <v>-4.47771226984651</v>
       </c>
     </row>
     <row r="183">
@@ -7096,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="F183" t="n">
-        <v>9.69234957800163</v>
+        <v>9.6581660336408</v>
       </c>
       <c r="G183" t="n">
-        <v>-8.01447190240475</v>
+        <v>-8.04865544676558</v>
       </c>
     </row>
     <row r="184">
@@ -7119,10 +7119,10 @@
         <v>9</v>
       </c>
       <c r="F184" t="n">
-        <v>9.17277167277167</v>
+        <v>9.14346569298646</v>
       </c>
       <c r="G184" t="n">
-        <v>-6.31767831104186</v>
+        <v>-6.34698429082707</v>
       </c>
     </row>
     <row r="185">
@@ -7142,10 +7142,10 @@
         <v>9</v>
       </c>
       <c r="F185" t="n">
-        <v>12.438901831803</v>
+        <v>12.4286822766899</v>
       </c>
       <c r="G185" t="n">
-        <v>-4.89686459155464</v>
+        <v>-4.90708414666772</v>
       </c>
     </row>
     <row r="186">
@@ -7165,10 +7165,10 @@
         <v>9</v>
       </c>
       <c r="F186" t="n">
-        <v>12.8021015761821</v>
+        <v>12.7864264474375</v>
       </c>
       <c r="G186" t="n">
-        <v>-4.72014346146331</v>
+        <v>-4.73581859020798</v>
       </c>
     </row>
     <row r="187">
@@ -7188,10 +7188,10 @@
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>21.0606100901572</v>
+        <v>21.015338888594</v>
       </c>
       <c r="G187" t="n">
-        <v>-3.56826461178883</v>
+        <v>-3.61353581335198</v>
       </c>
     </row>
     <row r="188">
@@ -7211,10 +7211,10 @@
         <v>9</v>
       </c>
       <c r="F188" t="n">
-        <v>16.7027677496992</v>
+        <v>16.670670189767</v>
       </c>
       <c r="G188" t="n">
-        <v>-2.71980442877853</v>
+        <v>-2.7519019887107</v>
       </c>
     </row>
     <row r="189">
@@ -7234,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="F189" t="n">
-        <v>10.9140518417462</v>
+        <v>10.8769544527532</v>
       </c>
       <c r="G189" t="n">
-        <v>-6.90177416473223</v>
+        <v>-6.93887155372525</v>
       </c>
     </row>
     <row r="190">
@@ -7257,10 +7257,10 @@
         <v>9</v>
       </c>
       <c r="F190" t="n">
-        <v>15.3781157583439</v>
+        <v>15.3672952434562</v>
       </c>
       <c r="G190" t="n">
-        <v>-4.92014439078618</v>
+        <v>-4.93096490567384</v>
       </c>
     </row>
     <row r="191">
@@ -7280,10 +7280,10 @@
         <v>9</v>
       </c>
       <c r="F191" t="n">
-        <v>9.9703012303776</v>
+        <v>10.0042571306939</v>
       </c>
       <c r="G191" t="n">
-        <v>-5.05027490130965</v>
+        <v>-5.01631900099333</v>
       </c>
     </row>
     <row r="192">
@@ -7303,10 +7303,10 @@
         <v>9</v>
       </c>
       <c r="F192" t="n">
-        <v>10.616727682343</v>
+        <v>10.5839416058394</v>
       </c>
       <c r="G192" t="n">
-        <v>-5.99669084800844</v>
+        <v>-6.02947692451202</v>
       </c>
     </row>
     <row r="193">
@@ -7326,10 +7326,10 @@
         <v>9</v>
       </c>
       <c r="F193" t="n">
-        <v>13.3104902477596</v>
+        <v>13.2999736634185</v>
       </c>
       <c r="G193" t="n">
-        <v>-7.24709182623726</v>
+        <v>-7.25760841057839</v>
       </c>
     </row>
     <row r="194">
@@ -7349,10 +7349,10 @@
         <v>9</v>
       </c>
       <c r="F194" t="n">
-        <v>10.2459016393443</v>
+        <v>10.2291325695581</v>
       </c>
       <c r="G194" t="n">
-        <v>-5.22046670074803</v>
+        <v>-5.2372357705342</v>
       </c>
     </row>
     <row r="195">
@@ -7372,10 +7372,10 @@
         <v>9</v>
       </c>
       <c r="F195" t="n">
-        <v>10.1420169272701</v>
+        <v>10.0611925430482</v>
       </c>
       <c r="G195" t="n">
-        <v>-5.31239105700328</v>
+        <v>-5.39321544122516</v>
       </c>
     </row>
     <row r="196">
@@ -7395,10 +7395,10 @@
         <v>9</v>
       </c>
       <c r="F196" t="n">
-        <v>11.9684278350515</v>
+        <v>11.9223363286264</v>
       </c>
       <c r="G196" t="n">
-        <v>-5.30897743549266</v>
+        <v>-5.35506894191776</v>
       </c>
     </row>
     <row r="197">
@@ -7418,10 +7418,10 @@
         <v>9</v>
       </c>
       <c r="F197" t="n">
-        <v>13.7793707686181</v>
+        <v>13.7228979375992</v>
       </c>
       <c r="G197" t="n">
-        <v>-4.11733282139927</v>
+        <v>-4.1738056524182</v>
       </c>
     </row>
     <row r="198">
@@ -7441,10 +7441,10 @@
         <v>9</v>
       </c>
       <c r="F198" t="n">
-        <v>14.7252385653175</v>
+        <v>14.6938105401412</v>
       </c>
       <c r="G198" t="n">
-        <v>-4.94767347024931</v>
+        <v>-4.97910149542565</v>
       </c>
     </row>
     <row r="199">
@@ -7464,10 +7464,10 @@
         <v>9</v>
       </c>
       <c r="F199" t="n">
-        <v>11.3831227436823</v>
+        <v>11.3779882724402</v>
       </c>
       <c r="G199" t="n">
-        <v>-5.72184716939993</v>
+        <v>-5.726981640642</v>
       </c>
     </row>
     <row r="200">
@@ -7487,10 +7487,10 @@
         <v>9</v>
       </c>
       <c r="F200" t="n">
-        <v>7.70095559302979</v>
+        <v>7.69374766005241</v>
       </c>
       <c r="G200" t="n">
-        <v>-5.47123852351508</v>
+        <v>-5.47844645649246</v>
       </c>
     </row>
     <row r="201">
@@ -7510,10 +7510,10 @@
         <v>9</v>
       </c>
       <c r="F201" t="n">
-        <v>9.90145471609573</v>
+        <v>9.86672901566519</v>
       </c>
       <c r="G201" t="n">
-        <v>-6.82065661679404</v>
+        <v>-6.85538231722459</v>
       </c>
     </row>
     <row r="202">
@@ -7533,10 +7533,10 @@
         <v>9</v>
       </c>
       <c r="F202" t="n">
-        <v>10.7020028322881</v>
+        <v>10.6696248487293</v>
       </c>
       <c r="G202" t="n">
-        <v>-4.47167175637736</v>
+        <v>-4.50404973993612</v>
       </c>
     </row>
     <row r="203">
@@ -7556,10 +7556,10 @@
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>6.76344440778621</v>
+        <v>6.7257217847769</v>
       </c>
       <c r="G203" t="n">
-        <v>-5.51005986571807</v>
+        <v>-5.54778248872737</v>
       </c>
     </row>
     <row r="204">
@@ -7579,10 +7579,10 @@
         <v>9</v>
       </c>
       <c r="F204" t="n">
-        <v>8.61632707417765</v>
+        <v>8.61517976031957</v>
       </c>
       <c r="G204" t="n">
-        <v>-6.16798665131254</v>
+        <v>-6.16913396517062</v>
       </c>
     </row>
     <row r="205">
@@ -7602,10 +7602,10 @@
         <v>9</v>
       </c>
       <c r="F205" t="n">
-        <v>7.50647109577222</v>
+        <v>7.48709122203098</v>
       </c>
       <c r="G205" t="n">
-        <v>-2.17895936780394</v>
+        <v>-2.19833924154518</v>
       </c>
     </row>
     <row r="206">
@@ -7625,10 +7625,10 @@
         <v>9</v>
       </c>
       <c r="F206" t="n">
-        <v>7.17736369910283</v>
+        <v>7.15268225584594</v>
       </c>
       <c r="G206" t="n">
-        <v>-5.25395498221585</v>
+        <v>-5.27863642547274</v>
       </c>
     </row>
     <row r="207">
@@ -7648,10 +7648,10 @@
         <v>9</v>
       </c>
       <c r="F207" t="n">
-        <v>5.93047034764826</v>
+        <v>5.90030518819939</v>
       </c>
       <c r="G207" t="n">
-        <v>-3.99360774345803</v>
+        <v>-4.0237729029069</v>
       </c>
     </row>
     <row r="208">
@@ -7671,10 +7671,10 @@
         <v>9</v>
       </c>
       <c r="F208" t="n">
-        <v>7.31034482758621</v>
+        <v>7.24538619275461</v>
       </c>
       <c r="G208" t="n">
-        <v>-5.28274928209558</v>
+        <v>-5.34770791692717</v>
       </c>
     </row>
     <row r="209">
@@ -7694,10 +7694,10 @@
         <v>9</v>
       </c>
       <c r="F209" t="n">
-        <v>6.70596904937362</v>
+        <v>6.67644900953778</v>
       </c>
       <c r="G209" t="n">
-        <v>-5.96812565814727</v>
+        <v>-5.99764569798311</v>
       </c>
     </row>
     <row r="210">
@@ -7717,10 +7717,10 @@
         <v>9</v>
       </c>
       <c r="F210" t="n">
-        <v>5.86270871985158</v>
+        <v>5.91096146651702</v>
       </c>
       <c r="G210" t="n">
-        <v>-7.23941074064939</v>
+        <v>-7.19115799398394</v>
       </c>
     </row>
     <row r="211">
@@ -7740,10 +7740,10 @@
         <v>9</v>
       </c>
       <c r="F211" t="n">
-        <v>7.25132877752468</v>
+        <v>7.30401529636711</v>
       </c>
       <c r="G211" t="n">
-        <v>-5.95762644635592</v>
+        <v>-5.90493992751348</v>
       </c>
     </row>
     <row r="212">
@@ -7763,10 +7763,10 @@
         <v>9</v>
       </c>
       <c r="F212" t="n">
-        <v>7.95275590551181</v>
+        <v>7.92986129285527</v>
       </c>
       <c r="G212" t="n">
-        <v>-4.7628168100609</v>
+        <v>-4.78571142271744</v>
       </c>
     </row>
     <row r="213">
@@ -7786,10 +7786,10 @@
         <v>9</v>
       </c>
       <c r="F213" t="n">
-        <v>6.55555555555556</v>
+        <v>6.54827968923419</v>
       </c>
       <c r="G213" t="n">
-        <v>-6.16568338249754</v>
+        <v>-6.17295924881891</v>
       </c>
     </row>
     <row r="214">
@@ -7809,10 +7809,10 @@
         <v>9</v>
       </c>
       <c r="F214" t="n">
-        <v>10.6984829329962</v>
+        <v>10.6698187549251</v>
       </c>
       <c r="G214" t="n">
-        <v>-5.76381013873893</v>
+        <v>-5.79247431680999</v>
       </c>
     </row>
     <row r="215">
@@ -7832,10 +7832,10 @@
         <v>9</v>
       </c>
       <c r="F215" t="n">
-        <v>6.84563758389262</v>
+        <v>6.92464358452139</v>
       </c>
       <c r="G215" t="n">
-        <v>-5.66290650359884</v>
+        <v>-5.58390050297007</v>
       </c>
     </row>
     <row r="216">
@@ -7855,10 +7855,10 @@
         <v>9</v>
       </c>
       <c r="F216" t="n">
-        <v>8.93203883495146</v>
+        <v>8.9043747580333</v>
       </c>
       <c r="G216" t="n">
-        <v>-4.26966461065443</v>
+        <v>-4.29732868757259</v>
       </c>
     </row>
     <row r="217">
@@ -7878,10 +7878,10 @@
         <v>9</v>
       </c>
       <c r="F217" t="n">
-        <v>7.55225893459204</v>
+        <v>7.55735492577598</v>
       </c>
       <c r="G217" t="n">
-        <v>-5.46010280906443</v>
+        <v>-5.45500681788049</v>
       </c>
     </row>
     <row r="218">
@@ -7901,10 +7901,10 @@
         <v>9</v>
       </c>
       <c r="F218" t="n">
-        <v>8.51581508515815</v>
+        <v>8.53658536585366</v>
       </c>
       <c r="G218" t="n">
-        <v>-6.33301767412237</v>
+        <v>-6.31224739342686</v>
       </c>
     </row>
     <row r="219">
@@ -7924,10 +7924,10 @@
         <v>9</v>
       </c>
       <c r="F219" t="n">
-        <v>8.93196503230711</v>
+        <v>8.93875998478509</v>
       </c>
       <c r="G219" t="n">
-        <v>-5.19785622827615</v>
+        <v>-5.19106127579817</v>
       </c>
     </row>
     <row r="220">
@@ -7947,10 +7947,10 @@
         <v>9</v>
       </c>
       <c r="F220" t="n">
-        <v>8.38471023427867</v>
+        <v>8.43672456575682</v>
       </c>
       <c r="G220" t="n">
-        <v>-6.10337733816177</v>
+        <v>-6.05136300668361</v>
       </c>
     </row>
     <row r="221">
@@ -7970,10 +7970,10 @@
         <v>9</v>
       </c>
       <c r="F221" t="n">
-        <v>6.92177827799662</v>
+        <v>6.91011235955056</v>
       </c>
       <c r="G221" t="n">
-        <v>-5.57822172200338</v>
+        <v>-5.58988764044944</v>
       </c>
     </row>
     <row r="222">
@@ -7993,10 +7993,10 @@
         <v>9</v>
       </c>
       <c r="F222" t="n">
-        <v>11.5457115928369</v>
+        <v>11.5185707569347</v>
       </c>
       <c r="G222" t="n">
-        <v>-7.11975278948948</v>
+        <v>-7.14689362539177</v>
       </c>
     </row>
     <row r="223">
@@ -8016,10 +8016,10 @@
         <v>9</v>
       </c>
       <c r="F223" t="n">
-        <v>11.4099911321312</v>
+        <v>11.3529411764706</v>
       </c>
       <c r="G223" t="n">
-        <v>-4.62499429060928</v>
+        <v>-4.68204424626994</v>
       </c>
     </row>
     <row r="224">
@@ -8039,10 +8039,10 @@
         <v>9</v>
       </c>
       <c r="F224" t="n">
-        <v>7.96502008981328</v>
+        <v>7.95937647614549</v>
       </c>
       <c r="G224" t="n">
-        <v>-3.28559537055107</v>
+        <v>-3.29123898421886</v>
       </c>
     </row>
     <row r="225">
@@ -8062,10 +8062,10 @@
         <v>9</v>
       </c>
       <c r="F225" t="n">
-        <v>7.45650372825186</v>
+        <v>7.45033112582781</v>
       </c>
       <c r="G225" t="n">
-        <v>-5.49313655951792</v>
+        <v>-5.49930916194197</v>
       </c>
     </row>
     <row r="226">
@@ -8085,10 +8085,10 @@
         <v>9</v>
       </c>
       <c r="F226" t="n">
-        <v>10.5002748763057</v>
+        <v>10.5321202095396</v>
       </c>
       <c r="G226" t="n">
-        <v>-5.43320151854412</v>
+        <v>-5.40135618531022</v>
       </c>
     </row>
     <row r="227">
@@ -8108,10 +8108,10 @@
         <v>9</v>
       </c>
       <c r="F227" t="n">
-        <v>9.45548197203826</v>
+        <v>9.45026659312374</v>
       </c>
       <c r="G227" t="n">
-        <v>-4.95559447101946</v>
+        <v>-4.96080984993398</v>
       </c>
     </row>
     <row r="228">
@@ -8131,10 +8131,10 @@
         <v>9</v>
       </c>
       <c r="F228" t="n">
-        <v>11.9295587956826</v>
+        <v>11.9115144639818</v>
       </c>
       <c r="G228" t="n">
-        <v>-5.03506653714353</v>
+        <v>-5.05311086884432</v>
       </c>
     </row>
     <row r="229">
@@ -8154,10 +8154,10 @@
         <v>9</v>
       </c>
       <c r="F229" t="n">
-        <v>12.7433865986303</v>
+        <v>12.7186222609395</v>
       </c>
       <c r="G229" t="n">
-        <v>-4.9282021353046</v>
+        <v>-4.95296647299543</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>7.92079207920792</v>
+        <v>7.90123456790123</v>
       </c>
       <c r="G230" t="n">
-        <v>-4.03451518336191</v>
+        <v>-4.0540726946686</v>
       </c>
     </row>
     <row r="231">
@@ -8200,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="F231" t="n">
-        <v>11.0404191616766</v>
+        <v>10.8535688005887</v>
       </c>
       <c r="G231" t="n">
-        <v>-4.8444842675705</v>
+        <v>-5.03133462865847</v>
       </c>
     </row>
     <row r="232">
@@ -8223,10 +8223,10 @@
         <v>9</v>
       </c>
       <c r="F232" t="n">
-        <v>8.40088430361091</v>
+        <v>8.39160839160839</v>
       </c>
       <c r="G232" t="n">
-        <v>-4.45625855353195</v>
+        <v>-4.46553446553446</v>
       </c>
     </row>
     <row r="233">
@@ -8246,10 +8246,10 @@
         <v>9</v>
       </c>
       <c r="F233" t="n">
-        <v>15.5675376745472</v>
+        <v>15.5331769899296</v>
       </c>
       <c r="G233" t="n">
-        <v>-4.72756628252858</v>
+        <v>-4.76192696714614</v>
       </c>
     </row>
     <row r="234">
@@ -8269,10 +8269,10 @@
         <v>9</v>
       </c>
       <c r="F234" t="n">
-        <v>8.85558583106267</v>
+        <v>8.86766712141883</v>
       </c>
       <c r="G234" t="n">
-        <v>-4.56294452037503</v>
+        <v>-4.55086323001887</v>
       </c>
     </row>
     <row r="235">
@@ -8292,10 +8292,10 @@
         <v>9</v>
       </c>
       <c r="F235" t="n">
-        <v>6.70470756062767</v>
+        <v>6.74076730010757</v>
       </c>
       <c r="G235" t="n">
-        <v>-5.73366938286872</v>
+        <v>-5.69760964338883</v>
       </c>
     </row>
     <row r="236">
@@ -8315,10 +8315,10 @@
         <v>9</v>
       </c>
       <c r="F236" t="n">
-        <v>6.35491606714628</v>
+        <v>6.36636636636637</v>
       </c>
       <c r="G236" t="n">
-        <v>-5.9448917483566</v>
+        <v>-5.93344144913652</v>
       </c>
     </row>
     <row r="237">
@@ -8338,10 +8338,10 @@
         <v>9</v>
       </c>
       <c r="F237" t="n">
-        <v>10.1148953631514</v>
+        <v>10.0632782200449</v>
       </c>
       <c r="G237" t="n">
-        <v>-4.03093797018192</v>
+        <v>-4.08255511328843</v>
       </c>
     </row>
     <row r="238">
@@ -8361,10 +8361,10 @@
         <v>9</v>
       </c>
       <c r="F238" t="n">
-        <v>10.9018567639257</v>
+        <v>10.827186512118</v>
       </c>
       <c r="G238" t="n">
-        <v>-2.94511172958764</v>
+        <v>-3.01978198139535</v>
       </c>
     </row>
     <row r="239">
@@ -8407,10 +8407,10 @@
         <v>9</v>
       </c>
       <c r="F240" t="n">
-        <v>10.8320519391765</v>
+        <v>10.8283518360376</v>
       </c>
       <c r="G240" t="n">
-        <v>-5.27313884803561</v>
+        <v>-5.27683895117453</v>
       </c>
     </row>
     <row r="241">
@@ -8430,10 +8430,10 @@
         <v>9</v>
       </c>
       <c r="F241" t="n">
-        <v>9.23937360178971</v>
+        <v>9.20847268673356</v>
       </c>
       <c r="G241" t="n">
-        <v>-4.23980776729992</v>
+        <v>-4.27070868235607</v>
       </c>
     </row>
     <row r="242">
@@ -8453,10 +8453,10 @@
         <v>9</v>
       </c>
       <c r="F242" t="n">
-        <v>7.83521809369952</v>
+        <v>7.81942765014107</v>
       </c>
       <c r="G242" t="n">
-        <v>-7.17314311031386</v>
+        <v>-7.18893355387231</v>
       </c>
     </row>
     <row r="243">
@@ -8476,10 +8476,10 @@
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>17.0240119437648</v>
+        <v>17.0063799817715</v>
       </c>
       <c r="G243" t="n">
-        <v>-4.76926327416798</v>
+        <v>-4.78689523616127</v>
       </c>
     </row>
     <row r="244">
@@ -8499,10 +8499,10 @@
         <v>9</v>
       </c>
       <c r="F244" t="n">
-        <v>19.6058008172422</v>
+        <v>19.5806993678483</v>
       </c>
       <c r="G244" t="n">
-        <v>-4.53862618432765</v>
+        <v>-4.56372763372158</v>
       </c>
     </row>
     <row r="245">
@@ -8522,10 +8522,10 @@
         <v>9</v>
       </c>
       <c r="F245" t="n">
-        <v>11.7150201983107</v>
+        <v>11.7236310180081</v>
       </c>
       <c r="G245" t="n">
-        <v>-5.74778324726488</v>
+        <v>-5.73917242756748</v>
       </c>
     </row>
     <row r="246">
@@ -8545,10 +8545,10 @@
         <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>16.0165642532728</v>
+        <v>16.0016014947284</v>
       </c>
       <c r="G246" t="n">
-        <v>-5.30017085966357</v>
+        <v>-5.31513361820793</v>
       </c>
     </row>
     <row r="247">
@@ -8568,10 +8568,10 @@
         <v>9</v>
       </c>
       <c r="F247" t="n">
-        <v>14.5506419400856</v>
+        <v>14.5444175103379</v>
       </c>
       <c r="G247" t="n">
-        <v>-5.42313428369063</v>
+        <v>-5.42935871343828</v>
       </c>
     </row>
     <row r="248">
@@ -8591,10 +8591,10 @@
         <v>9</v>
       </c>
       <c r="F248" t="n">
-        <v>16.3463332711327</v>
+        <v>16.3098119530814</v>
       </c>
       <c r="G248" t="n">
-        <v>-4.11154218674278</v>
+        <v>-4.1480635047941</v>
       </c>
     </row>
     <row r="249">
@@ -8614,10 +8614,10 @@
         <v>9</v>
       </c>
       <c r="F249" t="n">
-        <v>15.4786862334032</v>
+        <v>15.3766053453662</v>
       </c>
       <c r="G249" t="n">
-        <v>-6.5856115669352</v>
+        <v>-6.68769245497222</v>
       </c>
     </row>
     <row r="250">
@@ -8637,10 +8637,10 @@
         <v>9</v>
       </c>
       <c r="F250" t="n">
-        <v>16.2243430513793</v>
+        <v>16.1630632977338</v>
       </c>
       <c r="G250" t="n">
-        <v>-5.62305635980817</v>
+        <v>-5.68433611345365</v>
       </c>
     </row>
     <row r="251">
@@ -8660,10 +8660,10 @@
         <v>9</v>
       </c>
       <c r="F251" t="n">
-        <v>17.4101679830904</v>
+        <v>17.3966207203201</v>
       </c>
       <c r="G251" t="n">
-        <v>-4.41792167350014</v>
+        <v>-4.43146893627044</v>
       </c>
     </row>
     <row r="252">
@@ -8683,10 +8683,10 @@
         <v>9</v>
       </c>
       <c r="F252" t="n">
-        <v>21.1536690912439</v>
+        <v>21.0963683944722</v>
       </c>
       <c r="G252" t="n">
-        <v>-4.21381807932233</v>
+        <v>-4.27111877609399</v>
       </c>
     </row>
     <row r="253">
@@ -8706,10 +8706,10 @@
         <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>14.9447278911565</v>
+        <v>14.8846072411603</v>
       </c>
       <c r="G253" t="n">
-        <v>-6.00078832677867</v>
+        <v>-6.06090897677485</v>
       </c>
     </row>
     <row r="254">
@@ -8729,10 +8729,10 @@
         <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>15.689114168477</v>
+        <v>15.6513363833373</v>
       </c>
       <c r="G254" t="n">
-        <v>-4.47952758175095</v>
+        <v>-4.51730536689055</v>
       </c>
     </row>
     <row r="255">
@@ -8752,10 +8752,10 @@
         <v>9</v>
       </c>
       <c r="F255" t="n">
-        <v>11.0340843443096</v>
+        <v>11.0181713296798</v>
       </c>
       <c r="G255" t="n">
-        <v>-6.67244367417678</v>
+        <v>-6.68835668880659</v>
       </c>
     </row>
     <row r="256">
@@ -8775,10 +8775,10 @@
         <v>9</v>
       </c>
       <c r="F256" t="n">
-        <v>22.4736970883288</v>
+        <v>22.4092711192437</v>
       </c>
       <c r="G256" t="n">
-        <v>-4.26674438950943</v>
+        <v>-4.33117035859461</v>
       </c>
     </row>
     <row r="257">
@@ -8798,10 +8798,10 @@
         <v>9</v>
       </c>
       <c r="F257" t="n">
-        <v>20.0084459459459</v>
+        <v>19.8925182634982</v>
       </c>
       <c r="G257" t="n">
-        <v>-2.94011498485625</v>
+        <v>-3.05604266730401</v>
       </c>
     </row>
     <row r="258">
@@ -8821,10 +8821,10 @@
         <v>9</v>
       </c>
       <c r="F258" t="n">
-        <v>15.7269487343507</v>
+        <v>15.7082876962395</v>
       </c>
       <c r="G258" t="n">
-        <v>-4.66389042030486</v>
+        <v>-4.68255145841608</v>
       </c>
     </row>
     <row r="259">
@@ -8844,10 +8844,10 @@
         <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>13.197251414713</v>
+        <v>13.1388329979879</v>
       </c>
       <c r="G259" t="n">
-        <v>-6.01716445894562</v>
+        <v>-6.07558287567071</v>
       </c>
     </row>
     <row r="260">
@@ -8867,10 +8867,10 @@
         <v>9</v>
       </c>
       <c r="F260" t="n">
-        <v>15.8256148195465</v>
+        <v>15.7526625337784</v>
       </c>
       <c r="G260" t="n">
-        <v>-5.19994863530151</v>
+        <v>-5.27290092106957</v>
       </c>
     </row>
     <row r="261">
@@ -8890,10 +8890,10 @@
         <v>9</v>
       </c>
       <c r="F261" t="n">
-        <v>12.1718377088305</v>
+        <v>12.0996441281139</v>
       </c>
       <c r="G261" t="n">
-        <v>-6.11587341522303</v>
+        <v>-6.1880669959397</v>
       </c>
     </row>
     <row r="262">
@@ -8913,10 +8913,10 @@
         <v>9</v>
       </c>
       <c r="F262" t="n">
-        <v>10.1627630011909</v>
+        <v>10.1305896319747</v>
       </c>
       <c r="G262" t="n">
-        <v>-6.7364000119617</v>
+        <v>-6.76857338117798</v>
       </c>
     </row>
     <row r="263">
@@ -8936,10 +8936,10 @@
         <v>9</v>
       </c>
       <c r="F263" t="n">
-        <v>8.62785862785863</v>
+        <v>8.60549507516848</v>
       </c>
       <c r="G263" t="n">
-        <v>-5.32682726297556</v>
+        <v>-5.34919081566571</v>
       </c>
     </row>
     <row r="264">
@@ -8959,10 +8959,10 @@
         <v>9</v>
       </c>
       <c r="F264" t="n">
-        <v>10.4070856753534</v>
+        <v>10.3174603174603</v>
       </c>
       <c r="G264" t="n">
-        <v>-5.32851460223158</v>
+        <v>-5.41813996012469</v>
       </c>
     </row>
     <row r="265">
@@ -8982,10 +8982,10 @@
         <v>9</v>
       </c>
       <c r="F265" t="n">
-        <v>11.4729205331534</v>
+        <v>11.4516672280229</v>
       </c>
       <c r="G265" t="n">
-        <v>-5.30980927186056</v>
+        <v>-5.33106257699102</v>
       </c>
     </row>
     <row r="266">
@@ -9005,10 +9005,10 @@
         <v>9</v>
       </c>
       <c r="F266" t="n">
-        <v>9.80056406124094</v>
+        <v>9.86315255955398</v>
       </c>
       <c r="G266" t="n">
-        <v>-5.36474973800674</v>
+        <v>-5.3021612396937</v>
       </c>
     </row>
     <row r="267">
@@ -9028,10 +9028,10 @@
         <v>9</v>
       </c>
       <c r="F267" t="n">
-        <v>6.90724555962785</v>
+        <v>6.90529875986471</v>
       </c>
       <c r="G267" t="n">
-        <v>-5.0647905603838</v>
+        <v>-5.06673736014694</v>
       </c>
     </row>
     <row r="268">
@@ -9051,10 +9051,10 @@
         <v>9</v>
       </c>
       <c r="F268" t="n">
-        <v>11.9233073696824</v>
+        <v>12.0387174833636</v>
       </c>
       <c r="G268" t="n">
-        <v>-5.23956478443314</v>
+        <v>-5.124154670752</v>
       </c>
     </row>
     <row r="269">
@@ -9074,10 +9074,10 @@
         <v>9</v>
       </c>
       <c r="F269" t="n">
-        <v>7.71881461061337</v>
+        <v>7.77777777777778</v>
       </c>
       <c r="G269" t="n">
-        <v>-8.7605861384503</v>
+        <v>-8.70162297128589</v>
       </c>
     </row>
     <row r="270">
@@ -9097,10 +9097,10 @@
         <v>9</v>
       </c>
       <c r="F270" t="n">
-        <v>6.78925035360679</v>
+        <v>6.81818181818182</v>
       </c>
       <c r="G270" t="n">
-        <v>-7.09564173272415</v>
+        <v>-7.06671026814912</v>
       </c>
     </row>
     <row r="271">
@@ -9120,10 +9120,10 @@
         <v>9</v>
       </c>
       <c r="F271" t="n">
-        <v>8.35889570552147</v>
+        <v>8.36531082118189</v>
       </c>
       <c r="G271" t="n">
-        <v>-7.00232102451655</v>
+        <v>-6.99590590885613</v>
       </c>
     </row>
     <row r="272">
@@ -9143,10 +9143,10 @@
         <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>8.20683697396026</v>
+        <v>8.20278771432096</v>
       </c>
       <c r="G272" t="n">
-        <v>-5.67013012189096</v>
+        <v>-5.67417938153026</v>
       </c>
     </row>
     <row r="273">
@@ -9166,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="F273" t="n">
-        <v>8.24200913242009</v>
+        <v>8.26276035706111</v>
       </c>
       <c r="G273" t="n">
-        <v>-6.44053055011959</v>
+        <v>-6.41977932547857</v>
       </c>
     </row>
     <row r="274">
@@ -9189,10 +9189,10 @@
         <v>9</v>
       </c>
       <c r="F274" t="n">
-        <v>9.4208211143695</v>
+        <v>9.43465491923642</v>
       </c>
       <c r="G274" t="n">
-        <v>-6.38431090496854</v>
+        <v>-6.37047710010163</v>
       </c>
     </row>
     <row r="275">
@@ -9212,10 +9212,10 @@
         <v>9</v>
       </c>
       <c r="F275" t="n">
-        <v>17.8972826860151</v>
+        <v>17.8642431127521</v>
       </c>
       <c r="G275" t="n">
-        <v>-4.03218074200742</v>
+        <v>-4.06522031527044</v>
       </c>
     </row>
     <row r="276">
@@ -9235,10 +9235,10 @@
         <v>9</v>
       </c>
       <c r="F276" t="n">
-        <v>15.0642054574639</v>
+        <v>15.0099960015994</v>
       </c>
       <c r="G276" t="n">
-        <v>-4.24452425262252</v>
+        <v>-4.29873370848705</v>
       </c>
     </row>
     <row r="277">
@@ -9258,10 +9258,10 @@
         <v>9</v>
       </c>
       <c r="F277" t="n">
-        <v>13.0190796857464</v>
+        <v>12.9368029739777</v>
       </c>
       <c r="G277" t="n">
-        <v>-5.85355677518836</v>
+        <v>-5.93583348695702</v>
       </c>
     </row>
     <row r="278">
@@ -9281,10 +9281,10 @@
         <v>9</v>
       </c>
       <c r="F278" t="n">
-        <v>10.1746065962492</v>
+        <v>10.1570905960835</v>
       </c>
       <c r="G278" t="n">
-        <v>-5.24687020619036</v>
+        <v>-5.26438620635606</v>
       </c>
     </row>
     <row r="279">
@@ -9327,10 +9327,10 @@
         <v>9</v>
       </c>
       <c r="F280" t="n">
-        <v>13.631704817219</v>
+        <v>13.5575942915392</v>
       </c>
       <c r="G280" t="n">
-        <v>-5.05499887438506</v>
+        <v>-5.12910940006481</v>
       </c>
     </row>
     <row r="281">
@@ -9350,10 +9350,10 @@
         <v>9</v>
       </c>
       <c r="F281" t="n">
-        <v>9.67184801381693</v>
+        <v>9.68858131487889</v>
       </c>
       <c r="G281" t="n">
-        <v>-5.3155221798401</v>
+        <v>-5.29878887877814</v>
       </c>
     </row>
     <row r="282">
@@ -9373,10 +9373,10 @@
         <v>9</v>
       </c>
       <c r="F282" t="n">
-        <v>13.773987206823</v>
+        <v>13.7096774193548</v>
       </c>
       <c r="G282" t="n">
-        <v>-4.0978287340151</v>
+        <v>-4.16213852148329</v>
       </c>
     </row>
     <row r="283">
@@ -9396,10 +9396,10 @@
         <v>9</v>
       </c>
       <c r="F283" t="n">
-        <v>9.14924446284413</v>
+        <v>9.09277926352602</v>
       </c>
       <c r="G283" t="n">
-        <v>-4.97079622891579</v>
+        <v>-5.0272614282339</v>
       </c>
     </row>
     <row r="284">
@@ -9419,10 +9419,10 @@
         <v>9</v>
       </c>
       <c r="F284" t="n">
-        <v>14.5833333333333</v>
+        <v>14.5107794361526</v>
       </c>
       <c r="G284" t="n">
-        <v>-5.16201436500163</v>
+        <v>-5.2345682621824</v>
       </c>
     </row>
     <row r="285">
@@ -9442,10 +9442,10 @@
         <v>9</v>
       </c>
       <c r="F285" t="n">
-        <v>19.3872987477639</v>
+        <v>19.3569993302076</v>
       </c>
       <c r="G285" t="n">
-        <v>-4.48133042622559</v>
+        <v>-4.51162984378182</v>
       </c>
     </row>
     <row r="286">
@@ -9465,10 +9465,10 @@
         <v>9</v>
       </c>
       <c r="F286" t="n">
-        <v>16.4014687882497</v>
+        <v>16.3215590742996</v>
       </c>
       <c r="G286" t="n">
-        <v>-5.40356049180542</v>
+        <v>-5.48347020575548</v>
       </c>
     </row>
     <row r="287">
@@ -9488,10 +9488,10 @@
         <v>9</v>
       </c>
       <c r="F287" t="n">
-        <v>10.1147776183644</v>
+        <v>10.1099426386233</v>
       </c>
       <c r="G287" t="n">
-        <v>-6.31329091015001</v>
+        <v>-6.31812588989111</v>
       </c>
     </row>
     <row r="288">
@@ -9511,10 +9511,10 @@
         <v>9</v>
       </c>
       <c r="F288" t="n">
-        <v>18.0090497737557</v>
+        <v>17.9602888086643</v>
       </c>
       <c r="G288" t="n">
-        <v>-2.70843901548201</v>
+        <v>-2.75719998057341</v>
       </c>
     </row>
     <row r="289">
@@ -9534,10 +9534,10 @@
         <v>9</v>
       </c>
       <c r="F289" t="n">
-        <v>10.7787810383747</v>
+        <v>10.7605633802817</v>
       </c>
       <c r="G289" t="n">
-        <v>-5.79083251376927</v>
+        <v>-5.8090501718623</v>
       </c>
     </row>
     <row r="290">
@@ -9557,10 +9557,10 @@
         <v>9</v>
       </c>
       <c r="F290" t="n">
-        <v>15.3906866614049</v>
+        <v>15.4272151898734</v>
       </c>
       <c r="G290" t="n">
-        <v>-5.66111867611473</v>
+        <v>-5.62459014764621</v>
       </c>
     </row>
     <row r="291">
@@ -9580,10 +9580,10 @@
         <v>9</v>
       </c>
       <c r="F291" t="n">
-        <v>12.6137512639029</v>
+        <v>12.6073774633653</v>
       </c>
       <c r="G291" t="n">
-        <v>-4.912271490878</v>
+        <v>-4.91864529141559</v>
       </c>
     </row>
     <row r="292">
@@ -9603,10 +9603,10 @@
         <v>9</v>
       </c>
       <c r="F292" t="n">
-        <v>16.6615620214395</v>
+        <v>16.6056166056166</v>
       </c>
       <c r="G292" t="n">
-        <v>-3.40724531801003</v>
+        <v>-3.46319073383293</v>
       </c>
     </row>
     <row r="293">
@@ -9626,10 +9626,10 @@
         <v>9</v>
       </c>
       <c r="F293" t="n">
-        <v>17.3151750972763</v>
+        <v>17.2313649564376</v>
       </c>
       <c r="G293" t="n">
-        <v>-4.48724051127127</v>
+        <v>-4.57105065210997</v>
       </c>
     </row>
     <row r="294">
@@ -9649,10 +9649,10 @@
         <v>9</v>
       </c>
       <c r="F294" t="n">
-        <v>10.8442004118051</v>
+        <v>10.7960368978476</v>
       </c>
       <c r="G294" t="n">
-        <v>-6.00036263022294</v>
+        <v>-6.0485261441804</v>
       </c>
     </row>
     <row r="295">
@@ -9672,10 +9672,10 @@
         <v>9</v>
       </c>
       <c r="F295" t="n">
-        <v>12.2348154606219</v>
+        <v>12.1676300578035</v>
       </c>
       <c r="G295" t="n">
-        <v>-3.25349265492142</v>
+        <v>-3.32067805773986</v>
       </c>
     </row>
     <row r="296">
@@ -9695,10 +9695,10 @@
         <v>9</v>
       </c>
       <c r="F296" t="n">
-        <v>16.1664732216879</v>
+        <v>16.1077151825541</v>
       </c>
       <c r="G296" t="n">
-        <v>-5.43468657212649</v>
+        <v>-5.49344461126033</v>
       </c>
     </row>
     <row r="297">
@@ -9718,10 +9718,10 @@
         <v>9</v>
       </c>
       <c r="F297" t="n">
-        <v>19.016827672172</v>
+        <v>18.9518633540373</v>
       </c>
       <c r="G297" t="n">
-        <v>-4.5726813244733</v>
+        <v>-4.63764564260805</v>
       </c>
     </row>
     <row r="298">
@@ -9741,10 +9741,10 @@
         <v>9</v>
       </c>
       <c r="F298" t="n">
-        <v>17.1045785639958</v>
+        <v>16.9874693192094</v>
       </c>
       <c r="G298" t="n">
-        <v>-3.56783738401066</v>
+        <v>-3.68494662879709</v>
       </c>
     </row>
     <row r="299">
@@ -9764,10 +9764,10 @@
         <v>9</v>
       </c>
       <c r="F299" t="n">
-        <v>15.2342071336485</v>
+        <v>15.136635354398</v>
       </c>
       <c r="G299" t="n">
-        <v>-3.94304634487542</v>
+        <v>-4.04061812412595</v>
       </c>
     </row>
     <row r="300">
@@ -9787,10 +9787,10 @@
         <v>9</v>
       </c>
       <c r="F300" t="n">
-        <v>15.9610215053763</v>
+        <v>15.838612870957</v>
       </c>
       <c r="G300" t="n">
-        <v>-3.98682725603174</v>
+        <v>-4.10923589045109</v>
       </c>
     </row>
     <row r="301">
@@ -9810,10 +9810,10 @@
         <v>9</v>
       </c>
       <c r="F301" t="n">
-        <v>17.9332453328305</v>
+        <v>17.91972866026</v>
       </c>
       <c r="G301" t="n">
-        <v>-4.96854038145524</v>
+        <v>-4.98205705402568</v>
       </c>
     </row>
     <row r="302">
@@ -9833,10 +9833,10 @@
         <v>9</v>
       </c>
       <c r="F302" t="n">
-        <v>16.6517857142857</v>
+        <v>16.6344581537089</v>
       </c>
       <c r="G302" t="n">
-        <v>-6.2033577426772</v>
+        <v>-6.22068530325398</v>
       </c>
     </row>
     <row r="303">
@@ -9856,10 +9856,10 @@
         <v>9</v>
       </c>
       <c r="F303" t="n">
-        <v>18.0492654368718</v>
+        <v>18.0055096418733</v>
       </c>
       <c r="G303" t="n">
-        <v>-4.431354718167</v>
+        <v>-4.47511051316548</v>
       </c>
     </row>
     <row r="304">
@@ -9879,10 +9879,10 @@
         <v>9</v>
       </c>
       <c r="F304" t="n">
-        <v>17.6666666666667</v>
+        <v>17.6262731240906</v>
       </c>
       <c r="G304" t="n">
-        <v>-6.42558723327954</v>
+        <v>-6.46598077585558</v>
       </c>
     </row>
     <row r="305">
@@ -9902,10 +9902,10 @@
         <v>9</v>
       </c>
       <c r="F305" t="n">
-        <v>15.8889980353635</v>
+        <v>15.8500734933856</v>
       </c>
       <c r="G305" t="n">
-        <v>-4.95490327890908</v>
+        <v>-4.99382782088695</v>
       </c>
     </row>
     <row r="306">
@@ -9925,10 +9925,10 @@
         <v>9</v>
       </c>
       <c r="F306" t="n">
-        <v>16.0514172709295</v>
+        <v>16.0171024502549</v>
       </c>
       <c r="G306" t="n">
-        <v>-5.01587491496703</v>
+        <v>-5.05018973564161</v>
       </c>
     </row>
     <row r="307">
@@ -9948,10 +9948,10 @@
         <v>9</v>
       </c>
       <c r="F307" t="n">
-        <v>16.4497041420118</v>
+        <v>16.4302600472813</v>
       </c>
       <c r="G307" t="n">
-        <v>-5.46720067223306</v>
+        <v>-5.48664476696357</v>
       </c>
     </row>
     <row r="308">
@@ -9971,10 +9971,10 @@
         <v>9</v>
       </c>
       <c r="F308" t="n">
-        <v>11.8675554584198</v>
+        <v>11.810766721044</v>
       </c>
       <c r="G308" t="n">
-        <v>-6.6963497471706</v>
+        <v>-6.75313848454639</v>
       </c>
     </row>
     <row r="309">
@@ -9994,10 +9994,10 @@
         <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>15.2997393570808</v>
+        <v>15.2559993069393</v>
       </c>
       <c r="G309" t="n">
-        <v>-4.09745304589195</v>
+        <v>-4.14119309603348</v>
       </c>
     </row>
     <row r="310">
@@ -10017,10 +10017,10 @@
         <v>9</v>
       </c>
       <c r="F310" t="n">
-        <v>16.2918205214278</v>
+        <v>16.2645218945487</v>
       </c>
       <c r="G310" t="n">
-        <v>-5.20309806670467</v>
+        <v>-5.23039669358374</v>
       </c>
     </row>
     <row r="311">
@@ -10040,10 +10040,10 @@
         <v>9</v>
       </c>
       <c r="F311" t="n">
-        <v>18.7197525320561</v>
+        <v>18.672240469792</v>
       </c>
       <c r="G311" t="n">
-        <v>-5.83647434256337</v>
+        <v>-5.88398640482747</v>
       </c>
     </row>
     <row r="312">
@@ -10063,10 +10063,10 @@
         <v>9</v>
       </c>
       <c r="F312" t="n">
-        <v>18.0212014134276</v>
+        <v>17.9877482829033</v>
       </c>
       <c r="G312" t="n">
-        <v>-4.92109628194586</v>
+        <v>-4.95454941247013</v>
       </c>
     </row>
     <row r="313">
@@ -10086,10 +10086,10 @@
         <v>9</v>
       </c>
       <c r="F313" t="n">
-        <v>12.8604162688562</v>
+        <v>12.8249071693802</v>
       </c>
       <c r="G313" t="n">
-        <v>-6.01330695269309</v>
+        <v>-6.04881605216913</v>
       </c>
     </row>
     <row r="314">
@@ -10109,10 +10109,10 @@
         <v>9</v>
       </c>
       <c r="F314" t="n">
-        <v>10.795836131632</v>
+        <v>10.7813547954393</v>
       </c>
       <c r="G314" t="n">
-        <v>-5.87637131517654</v>
+        <v>-5.8908526513692</v>
       </c>
     </row>
     <row r="315">
@@ -10132,10 +10132,10 @@
         <v>9</v>
       </c>
       <c r="F315" t="n">
-        <v>12.1385810724748</v>
+        <v>12.1046615013337</v>
       </c>
       <c r="G315" t="n">
-        <v>-5.71237213376432</v>
+        <v>-5.7462917049055</v>
       </c>
     </row>
     <row r="316">
@@ -10155,10 +10155,10 @@
         <v>9</v>
       </c>
       <c r="F316" t="n">
-        <v>8.83956386292835</v>
+        <v>8.81211180124224</v>
       </c>
       <c r="G316" t="n">
-        <v>-6.90297200368662</v>
+        <v>-6.93042406537273</v>
       </c>
     </row>
     <row r="317">
@@ -10178,10 +10178,10 @@
         <v>9</v>
       </c>
       <c r="F317" t="n">
-        <v>9.71308239010266</v>
+        <v>9.67995802728227</v>
       </c>
       <c r="G317" t="n">
-        <v>-4.66877204658727</v>
+        <v>-4.70189640940766</v>
       </c>
     </row>
     <row r="318">
@@ -10201,10 +10201,10 @@
         <v>9</v>
       </c>
       <c r="F318" t="n">
-        <v>11.3215669393026</v>
+        <v>11.2762612548235</v>
       </c>
       <c r="G318" t="n">
-        <v>-6.91865652438453</v>
+        <v>-6.96396220886366</v>
       </c>
     </row>
     <row r="319">
@@ -10224,10 +10224,10 @@
         <v>9</v>
       </c>
       <c r="F319" t="n">
-        <v>9.33240125830129</v>
+        <v>9.34219734079776</v>
       </c>
       <c r="G319" t="n">
-        <v>-5.36739170236123</v>
+        <v>-5.35759561986477</v>
       </c>
     </row>
     <row r="320">
@@ -10247,10 +10247,10 @@
         <v>9</v>
       </c>
       <c r="F320" t="n">
-        <v>14.5149183711766</v>
+        <v>14.4904458598726</v>
       </c>
       <c r="G320" t="n">
-        <v>-5.23000808572158</v>
+        <v>-5.25448059702554</v>
       </c>
     </row>
     <row r="321">
@@ -10270,10 +10270,10 @@
         <v>9</v>
       </c>
       <c r="F321" t="n">
-        <v>11.0091743119266</v>
+        <v>10.9950522264981</v>
       </c>
       <c r="G321" t="n">
-        <v>-6.04875509189032</v>
+        <v>-6.06287717731885</v>
       </c>
     </row>
     <row r="322">
@@ -10293,10 +10293,10 @@
         <v>9</v>
       </c>
       <c r="F322" t="n">
-        <v>16.4892746029147</v>
+        <v>16.4919751064527</v>
       </c>
       <c r="G322" t="n">
-        <v>-5.15464796135063</v>
+        <v>-5.15194745781265</v>
       </c>
     </row>
     <row r="323">
@@ -10316,10 +10316,10 @@
         <v>9</v>
       </c>
       <c r="F323" t="n">
-        <v>16.0438325372296</v>
+        <v>15.9497206703911</v>
       </c>
       <c r="G323" t="n">
-        <v>-4.90300692323064</v>
+        <v>-4.99711879006913</v>
       </c>
     </row>
     <row r="324">
@@ -10339,10 +10339,10 @@
         <v>9</v>
       </c>
       <c r="F324" t="n">
-        <v>14.8718600146083</v>
+        <v>14.8182134607474</v>
       </c>
       <c r="G324" t="n">
-        <v>-4.7663523287353</v>
+        <v>-4.81999888259618</v>
       </c>
     </row>
     <row r="325">
@@ -10362,10 +10362,10 @@
         <v>9</v>
       </c>
       <c r="F325" t="n">
-        <v>15.2940366340724</v>
+        <v>15.241559154543</v>
       </c>
       <c r="G325" t="n">
-        <v>-4.02670392134412</v>
+        <v>-4.0791814008736</v>
       </c>
     </row>
     <row r="326">
@@ -10385,10 +10385,10 @@
         <v>9</v>
       </c>
       <c r="F326" t="n">
-        <v>13.6807817589577</v>
+        <v>13.5775862068966</v>
       </c>
       <c r="G326" t="n">
-        <v>-3.71534012469885</v>
+        <v>-3.81853567675996</v>
       </c>
     </row>
     <row r="327">
@@ -10408,10 +10408,10 @@
         <v>9</v>
       </c>
       <c r="F327" t="n">
-        <v>11.1705542478065</v>
+        <v>11.1729452054795</v>
       </c>
       <c r="G327" t="n">
-        <v>-4.86617434497585</v>
+        <v>-4.86378338730295</v>
       </c>
     </row>
     <row r="328">
@@ -10431,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="F328" t="n">
-        <v>6.60771704180064</v>
+        <v>6.59816985069835</v>
       </c>
       <c r="G328" t="n">
-        <v>-7.44430324283865</v>
+        <v>-7.45385043394095</v>
       </c>
     </row>
     <row r="329">
@@ -10454,10 +10454,10 @@
         <v>9</v>
       </c>
       <c r="F329" t="n">
-        <v>9.89034162800506</v>
+        <v>9.87992416262903</v>
       </c>
       <c r="G329" t="n">
-        <v>-5.44889141034302</v>
+        <v>-5.45930887571905</v>
       </c>
     </row>
     <row r="330">
@@ -10477,10 +10477,10 @@
         <v>9</v>
       </c>
       <c r="F330" t="n">
-        <v>7.29948933613698</v>
+        <v>7.24508050089445</v>
       </c>
       <c r="G330" t="n">
-        <v>-5.69930147402022</v>
+        <v>-5.75371030926274</v>
       </c>
     </row>
     <row r="331">
@@ -10500,10 +10500,10 @@
         <v>9</v>
       </c>
       <c r="F331" t="n">
-        <v>9.41358024691358</v>
+        <v>9.37740199846272</v>
       </c>
       <c r="G331" t="n">
-        <v>-7.03973300609847</v>
+        <v>-7.07591125454933</v>
       </c>
     </row>
     <row r="332">
@@ -10523,10 +10523,10 @@
         <v>9</v>
       </c>
       <c r="F332" t="n">
-        <v>5.87823652904129</v>
+        <v>5.8659217877095</v>
       </c>
       <c r="G332" t="n">
-        <v>-6.66958290477662</v>
+        <v>-6.6818976461084</v>
       </c>
     </row>
     <row r="333">
@@ -10546,10 +10546,10 @@
         <v>9</v>
       </c>
       <c r="F333" t="n">
-        <v>17.433136199135</v>
+        <v>17.3626373626374</v>
       </c>
       <c r="G333" t="n">
-        <v>-4.46518064972847</v>
+        <v>-4.53567948622608</v>
       </c>
     </row>
     <row r="334">
@@ -10569,10 +10569,10 @@
         <v>9</v>
       </c>
       <c r="F334" t="n">
-        <v>10.6096975516083</v>
+        <v>10.6352261790183</v>
       </c>
       <c r="G334" t="n">
-        <v>-7.82392231467636</v>
+        <v>-7.79839368726634</v>
       </c>
     </row>
     <row r="335">
@@ -10592,10 +10592,10 @@
         <v>9</v>
       </c>
       <c r="F335" t="n">
-        <v>13.2921174652241</v>
+        <v>13.2231404958678</v>
       </c>
       <c r="G335" t="n">
-        <v>-4.62454920144256</v>
+        <v>-4.69352617079889</v>
       </c>
     </row>
     <row r="336">
@@ -10615,10 +10615,10 @@
         <v>9</v>
       </c>
       <c r="F336" t="n">
-        <v>10.459484225684</v>
+        <v>10.4280866614461</v>
       </c>
       <c r="G336" t="n">
-        <v>-6.77208110419958</v>
+        <v>-6.80347866843747</v>
       </c>
     </row>
     <row r="337">
@@ -10638,10 +10638,10 @@
         <v>9</v>
       </c>
       <c r="F337" t="n">
-        <v>5.46006066734075</v>
+        <v>5.43478260869565</v>
       </c>
       <c r="G337" t="n">
-        <v>-4.63470653496663</v>
+        <v>-4.65998459361172</v>
       </c>
     </row>
     <row r="338">
@@ -10661,10 +10661,10 @@
         <v>9</v>
       </c>
       <c r="F338" t="n">
-        <v>6.65541807274091</v>
+        <v>6.64047886270109</v>
       </c>
       <c r="G338" t="n">
-        <v>-5.6323132762383</v>
+        <v>-5.64725248627812</v>
       </c>
     </row>
     <row r="339">
@@ -10684,10 +10684,10 @@
         <v>9</v>
       </c>
       <c r="F339" t="n">
-        <v>17.5445007047032</v>
+        <v>17.5115927681967</v>
       </c>
       <c r="G339" t="n">
-        <v>-6.28513849617142</v>
+        <v>-6.31804643267792</v>
       </c>
     </row>
     <row r="340">
@@ -10707,10 +10707,10 @@
         <v>9</v>
       </c>
       <c r="F340" t="n">
-        <v>17.3004144890971</v>
+        <v>17.2692930383162</v>
       </c>
       <c r="G340" t="n">
-        <v>-7.65540028644192</v>
+        <v>-7.68652173722282</v>
       </c>
     </row>
     <row r="341">
@@ -10730,10 +10730,10 @@
         <v>9</v>
       </c>
       <c r="F341" t="n">
-        <v>19.2465450873982</v>
+        <v>19.2113882590073</v>
       </c>
       <c r="G341" t="n">
-        <v>-4.74927209904452</v>
+        <v>-4.78442892743546</v>
       </c>
     </row>
     <row r="342">
@@ -10753,10 +10753,10 @@
         <v>9</v>
       </c>
       <c r="F342" t="n">
-        <v>16.6180119690556</v>
+        <v>16.5901639344262</v>
       </c>
       <c r="G342" t="n">
-        <v>-5.55280899345216</v>
+        <v>-5.58065702808154</v>
       </c>
     </row>
     <row r="343">
@@ -10776,10 +10776,10 @@
         <v>9</v>
       </c>
       <c r="F343" t="n">
-        <v>16.2225338943432</v>
+        <v>16.1801734589201</v>
       </c>
       <c r="G343" t="n">
-        <v>-4.80835845571278</v>
+        <v>-4.85071889113586</v>
       </c>
     </row>
     <row r="344">
@@ -10799,10 +10799,10 @@
         <v>9</v>
       </c>
       <c r="F344" t="n">
-        <v>14.6607569041937</v>
+        <v>14.6908097027673</v>
       </c>
       <c r="G344" t="n">
-        <v>-5.17686728125662</v>
+        <v>-5.14681448268293</v>
       </c>
     </row>
     <row r="345">
@@ -10822,10 +10822,10 @@
         <v>9</v>
       </c>
       <c r="F345" t="n">
-        <v>15.0237529691211</v>
+        <v>14.9742115498436</v>
       </c>
       <c r="G345" t="n">
-        <v>-5.07900875213769</v>
+        <v>-5.12855017141525</v>
       </c>
     </row>
     <row r="346">
@@ -10845,10 +10845,10 @@
         <v>9</v>
       </c>
       <c r="F346" t="n">
-        <v>12.8522762465159</v>
+        <v>12.8178729537733</v>
       </c>
       <c r="G346" t="n">
-        <v>-5.87841737887018</v>
+        <v>-5.91282067161283</v>
       </c>
     </row>
     <row r="347">
@@ -10868,10 +10868,10 @@
         <v>9</v>
       </c>
       <c r="F347" t="n">
-        <v>12.2431259044863</v>
+        <v>12.2307358681509</v>
       </c>
       <c r="G347" t="n">
-        <v>-5.43006582118361</v>
+        <v>-5.44245585751893</v>
       </c>
     </row>
     <row r="348">
@@ -10891,10 +10891,10 @@
         <v>9</v>
       </c>
       <c r="F348" t="n">
-        <v>13.6573609158466</v>
+        <v>13.6655948553055</v>
       </c>
       <c r="G348" t="n">
-        <v>-4.89826421460637</v>
+        <v>-4.89003027514747</v>
       </c>
     </row>
     <row r="349">
@@ -10914,10 +10914,10 @@
         <v>9</v>
       </c>
       <c r="F349" t="n">
-        <v>14.614488702539</v>
+        <v>14.5913763430857</v>
       </c>
       <c r="G349" t="n">
-        <v>-6.18554741647313</v>
+        <v>-6.20865977592642</v>
       </c>
     </row>
     <row r="350">
@@ -10937,10 +10937,10 @@
         <v>9</v>
       </c>
       <c r="F350" t="n">
-        <v>15.7221626589064</v>
+        <v>15.6849262739705</v>
       </c>
       <c r="G350" t="n">
-        <v>-6.52303675025163</v>
+        <v>-6.56027313518754</v>
       </c>
     </row>
     <row r="351">
@@ -10960,10 +10960,10 @@
         <v>9</v>
       </c>
       <c r="F351" t="n">
-        <v>15.3811938439641</v>
+        <v>15.3716216216216</v>
       </c>
       <c r="G351" t="n">
-        <v>-4.05569765678149</v>
+        <v>-4.06526987912393</v>
       </c>
     </row>
     <row r="352">
@@ -10983,10 +10983,10 @@
         <v>9</v>
       </c>
       <c r="F352" t="n">
-        <v>15.4284591194969</v>
+        <v>15.401216401805</v>
       </c>
       <c r="G352" t="n">
-        <v>-4.73527108160654</v>
+        <v>-4.76251379929841</v>
       </c>
     </row>
     <row r="353">
@@ -11006,10 +11006,10 @@
         <v>9</v>
       </c>
       <c r="F353" t="n">
-        <v>14.4569174757282</v>
+        <v>14.4350196910027</v>
       </c>
       <c r="G353" t="n">
-        <v>-4.72308814067173</v>
+        <v>-4.74498592539716</v>
       </c>
     </row>
     <row r="354">
@@ -11029,10 +11029,10 @@
         <v>9</v>
       </c>
       <c r="F354" t="n">
-        <v>12.0627261761158</v>
+        <v>12.0603015075377</v>
       </c>
       <c r="G354" t="n">
-        <v>-7.58678911098337</v>
+        <v>-7.58921377956149</v>
       </c>
     </row>
     <row r="355">
@@ -11052,10 +11052,10 @@
         <v>9</v>
       </c>
       <c r="F355" t="n">
-        <v>15.5746284278836</v>
+        <v>15.5129274395329</v>
       </c>
       <c r="G355" t="n">
-        <v>-5.45992015008929</v>
+        <v>-5.52162113843995</v>
       </c>
     </row>
     <row r="356">
@@ -11075,10 +11075,10 @@
         <v>9</v>
       </c>
       <c r="F356" t="n">
-        <v>9.88868754853741</v>
+        <v>9.87590486039297</v>
       </c>
       <c r="G356" t="n">
-        <v>-6.83013229947332</v>
+        <v>-6.84291498761776</v>
       </c>
     </row>
     <row r="357">
@@ -11098,10 +11098,10 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>14.7996475040174</v>
+        <v>14.7354838709677</v>
       </c>
       <c r="G357" t="n">
-        <v>-4.87992404774585</v>
+        <v>-4.94408768079552</v>
       </c>
     </row>
     <row r="358">
@@ -11144,10 +11144,10 @@
         <v>9</v>
       </c>
       <c r="F359" t="n">
-        <v>12.9992520568437</v>
+        <v>12.9431039618707</v>
       </c>
       <c r="G359" t="n">
-        <v>-5.5237997587418</v>
+        <v>-5.57994785371476</v>
       </c>
     </row>
     <row r="360">
@@ -11167,10 +11167,10 @@
         <v>9</v>
       </c>
       <c r="F360" t="n">
-        <v>12.4097834803528</v>
+        <v>12.3923923923924</v>
       </c>
       <c r="G360" t="n">
-        <v>-6.081700704562</v>
+        <v>-6.09909179252245</v>
       </c>
     </row>
     <row r="361">
@@ -11190,10 +11190,10 @@
         <v>9</v>
       </c>
       <c r="F361" t="n">
-        <v>16.0998380489664</v>
+        <v>16.0692212608158</v>
       </c>
       <c r="G361" t="n">
-        <v>-3.74749019530844</v>
+        <v>-3.77810698345899</v>
       </c>
     </row>
     <row r="362">
@@ -11213,10 +11213,10 @@
         <v>9</v>
       </c>
       <c r="F362" t="n">
-        <v>16.9831712212444</v>
+        <v>16.9334975369458</v>
       </c>
       <c r="G362" t="n">
-        <v>-4.83995413651175</v>
+        <v>-4.88962782081034</v>
       </c>
     </row>
     <row r="363">
@@ -11236,10 +11236,10 @@
         <v>9</v>
       </c>
       <c r="F363" t="n">
-        <v>14.2223027448138</v>
+        <v>14.1940150076847</v>
       </c>
       <c r="G363" t="n">
-        <v>-4.72653365368699</v>
+        <v>-4.75482139081617</v>
       </c>
     </row>
     <row r="364">
@@ -11259,10 +11259,10 @@
         <v>9</v>
       </c>
       <c r="F364" t="n">
-        <v>9.75419430355053</v>
+        <v>9.79240109674892</v>
       </c>
       <c r="G364" t="n">
-        <v>-6.44403054852048</v>
+        <v>-6.40582375532208</v>
       </c>
     </row>
     <row r="365">
@@ -11282,10 +11282,10 @@
         <v>9</v>
       </c>
       <c r="F365" t="n">
-        <v>13.0547925401185</v>
+        <v>13.0434782608696</v>
       </c>
       <c r="G365" t="n">
-        <v>-6.51925818147316</v>
+        <v>-6.53057246072214</v>
       </c>
     </row>
     <row r="366">
@@ -11305,10 +11305,10 @@
         <v>9</v>
       </c>
       <c r="F366" t="n">
-        <v>12.6788036410923</v>
+        <v>12.7118644067797</v>
       </c>
       <c r="G366" t="n">
-        <v>-5.14728331542941</v>
+        <v>-5.11422254974208</v>
       </c>
     </row>
     <row r="367">
@@ -11328,10 +11328,10 @@
         <v>9</v>
       </c>
       <c r="F367" t="n">
-        <v>12.9263913824057</v>
+        <v>12.8056914184082</v>
       </c>
       <c r="G367" t="n">
-        <v>-7.25317253379776</v>
+        <v>-7.37387249779532</v>
       </c>
     </row>
     <row r="368">
@@ -11351,10 +11351,10 @@
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>13.7428977272727</v>
+        <v>13.6604306388987</v>
       </c>
       <c r="G368" t="n">
-        <v>-6.12036243825444</v>
+        <v>-6.20282952662848</v>
       </c>
     </row>
     <row r="369">
@@ -11374,10 +11374,10 @@
         <v>9</v>
       </c>
       <c r="F369" t="n">
-        <v>22.6968064134578</v>
+        <v>22.6640419947507</v>
       </c>
       <c r="G369" t="n">
-        <v>-3.79140263689279</v>
+        <v>-3.82416705559989</v>
       </c>
     </row>
     <row r="370">
@@ -11397,10 +11397,10 @@
         <v>9</v>
       </c>
       <c r="F370" t="n">
-        <v>17.5402933062291</v>
+        <v>17.4819102749638</v>
       </c>
       <c r="G370" t="n">
-        <v>-4.44823441843626</v>
+        <v>-4.50661744970157</v>
       </c>
     </row>
     <row r="371">
@@ -11420,10 +11420,10 @@
         <v>9</v>
       </c>
       <c r="F371" t="n">
-        <v>14.016433059449</v>
+        <v>13.9809569723997</v>
       </c>
       <c r="G371" t="n">
-        <v>-5.83266734681913</v>
+        <v>-5.86814343386847</v>
       </c>
     </row>
     <row r="372">
@@ -11443,10 +11443,10 @@
         <v>9</v>
       </c>
       <c r="F372" t="n">
-        <v>19.1988950276243</v>
+        <v>19.1724137931034</v>
       </c>
       <c r="G372" t="n">
-        <v>-4.83188330916172</v>
+        <v>-4.85836454368258</v>
       </c>
     </row>
     <row r="373">
@@ -11466,10 +11466,10 @@
         <v>9</v>
       </c>
       <c r="F373" t="n">
-        <v>17.7083333333333</v>
+        <v>17.6641729010806</v>
       </c>
       <c r="G373" t="n">
-        <v>-5.68275577557756</v>
+        <v>-5.72691620783026</v>
       </c>
     </row>
     <row r="374">
@@ -11489,10 +11489,10 @@
         <v>9</v>
       </c>
       <c r="F374" t="n">
-        <v>18.1609195402299</v>
+        <v>18.0955497382199</v>
       </c>
       <c r="G374" t="n">
-        <v>-4.44546343849352</v>
+        <v>-4.51083324050351</v>
       </c>
     </row>
     <row r="375">
@@ -11512,10 +11512,10 @@
         <v>9</v>
       </c>
       <c r="F375" t="n">
-        <v>15.7157157157157</v>
+        <v>15.7393483709273</v>
       </c>
       <c r="G375" t="n">
-        <v>-7.03346003878593</v>
+        <v>-7.00982738357433</v>
       </c>
     </row>
     <row r="376">
@@ -11535,10 +11535,10 @@
         <v>9</v>
       </c>
       <c r="F376" t="n">
-        <v>17.9032392372387</v>
+        <v>17.8423236514523</v>
       </c>
       <c r="G376" t="n">
-        <v>-5.20680860965121</v>
+        <v>-5.26772419543767</v>
       </c>
     </row>
     <row r="377">
@@ -11558,10 +11558,10 @@
         <v>9</v>
       </c>
       <c r="F377" t="n">
-        <v>12.1237380753913</v>
+        <v>12.1046791196597</v>
       </c>
       <c r="G377" t="n">
-        <v>-6.18762637063647</v>
+        <v>-6.20668532636809</v>
       </c>
     </row>
     <row r="378">
@@ -11581,10 +11581,10 @@
         <v>9</v>
       </c>
       <c r="F378" t="n">
-        <v>23.3631977946244</v>
+        <v>23.2803021632139</v>
       </c>
       <c r="G378" t="n">
-        <v>-2.96326384782238</v>
+        <v>-3.04615947923286</v>
       </c>
     </row>
     <row r="379">
@@ -11604,10 +11604,10 @@
         <v>9</v>
       </c>
       <c r="F379" t="n">
-        <v>13.6934441366574</v>
+        <v>13.6757654002213</v>
       </c>
       <c r="G379" t="n">
-        <v>-5.75269895760307</v>
+        <v>-5.77037769403918</v>
       </c>
     </row>
     <row r="380">
@@ -11627,10 +11627,10 @@
         <v>9</v>
       </c>
       <c r="F380" t="n">
-        <v>12.34375</v>
+        <v>12.3116883116883</v>
       </c>
       <c r="G380" t="n">
-        <v>-5.87350571725572</v>
+        <v>-5.90556740556741</v>
       </c>
     </row>
     <row r="381">
@@ -11650,10 +11650,10 @@
         <v>9</v>
       </c>
       <c r="F381" t="n">
-        <v>18.6581469648562</v>
+        <v>18.6010956809785</v>
       </c>
       <c r="G381" t="n">
-        <v>-5.3644741317752</v>
+        <v>-5.42152541565296</v>
       </c>
     </row>
     <row r="382">
@@ -11673,10 +11673,10 @@
         <v>9</v>
       </c>
       <c r="F382" t="n">
-        <v>11.604774535809</v>
+        <v>11.5740740740741</v>
       </c>
       <c r="G382" t="n">
-        <v>-6.5160308333185</v>
+        <v>-6.54673129505344</v>
       </c>
     </row>
     <row r="383">
@@ -11696,10 +11696,10 @@
         <v>9</v>
       </c>
       <c r="F383" t="n">
-        <v>15.9768829231916</v>
+        <v>15.9501209752466</v>
       </c>
       <c r="G383" t="n">
-        <v>-6.16545417182109</v>
+        <v>-6.19221611976614</v>
       </c>
     </row>
     <row r="384">
@@ -11719,10 +11719,10 @@
         <v>9</v>
       </c>
       <c r="F384" t="n">
-        <v>12.6584309321354</v>
+        <v>12.6422047748758</v>
       </c>
       <c r="G384" t="n">
-        <v>-5.36637672997795</v>
+        <v>-5.38260288723754</v>
       </c>
     </row>
     <row r="385">
@@ -11742,10 +11742,10 @@
         <v>9</v>
       </c>
       <c r="F385" t="n">
-        <v>14.7867298578199</v>
+        <v>14.8148148148148</v>
       </c>
       <c r="G385" t="n">
-        <v>-4.99300582499948</v>
+        <v>-4.96492086800457</v>
       </c>
     </row>
     <row r="386">
@@ -11765,10 +11765,10 @@
         <v>9</v>
       </c>
       <c r="F386" t="n">
-        <v>13.5230812800906</v>
+        <v>13.5135135135135</v>
       </c>
       <c r="G386" t="n">
-        <v>-6.11527027583873</v>
+        <v>-6.12483804241584</v>
       </c>
     </row>
     <row r="387">
@@ -11788,10 +11788,10 @@
         <v>9</v>
       </c>
       <c r="F387" t="n">
-        <v>14.0252454417952</v>
+        <v>13.9742873113471</v>
       </c>
       <c r="G387" t="n">
-        <v>-5.85136400026486</v>
+        <v>-5.90232213071296</v>
       </c>
     </row>
     <row r="388">
@@ -11811,10 +11811,10 @@
         <v>9</v>
       </c>
       <c r="F388" t="n">
-        <v>9.73097940311055</v>
+        <v>9.72280554388912</v>
       </c>
       <c r="G388" t="n">
-        <v>-6.57664662015528</v>
+        <v>-6.58482047937671</v>
       </c>
     </row>
     <row r="389">
@@ -11834,10 +11834,10 @@
         <v>9</v>
       </c>
       <c r="F389" t="n">
-        <v>10.60116354234</v>
+        <v>10.594315245478</v>
       </c>
       <c r="G389" t="n">
-        <v>-7.40262672929612</v>
+        <v>-7.4094750261581</v>
       </c>
     </row>
     <row r="390">
@@ -11857,10 +11857,10 @@
         <v>9</v>
       </c>
       <c r="F390" t="n">
-        <v>15.6531531531532</v>
+        <v>15.6179775280899</v>
       </c>
       <c r="G390" t="n">
-        <v>-6.32045556744352</v>
+        <v>-6.35563119250679</v>
       </c>
     </row>
     <row r="391">
@@ -11880,10 +11880,10 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>9.96607294317218</v>
+        <v>9.84087102177554</v>
       </c>
       <c r="G391" t="n">
-        <v>-3.44574122542147</v>
+        <v>-3.57094314681811</v>
       </c>
     </row>
     <row r="392">
@@ -11903,10 +11903,10 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>9.74793664956502</v>
+        <v>9.72191323692992</v>
       </c>
       <c r="G392" t="n">
-        <v>-6.34154495938314</v>
+        <v>-6.36756837201824</v>
       </c>
     </row>
     <row r="393">
@@ -11926,10 +11926,10 @@
         <v>9</v>
       </c>
       <c r="F393" t="n">
-        <v>10.9124767225326</v>
+        <v>10.8478341355054</v>
       </c>
       <c r="G393" t="n">
-        <v>-5.23885103301488</v>
+        <v>-5.3034936200421</v>
       </c>
     </row>
     <row r="394">
@@ -11949,10 +11949,10 @@
         <v>9</v>
       </c>
       <c r="F394" t="n">
-        <v>10.1367122374125</v>
+        <v>10.0862641008626</v>
       </c>
       <c r="G394" t="n">
-        <v>-6.8070217779328</v>
+        <v>-6.85746991448263</v>
       </c>
     </row>
     <row r="395">
@@ -11972,10 +11972,10 @@
         <v>9</v>
       </c>
       <c r="F395" t="n">
-        <v>9.86807387862797</v>
+        <v>9.83692793266702</v>
       </c>
       <c r="G395" t="n">
-        <v>-7.09131141226117</v>
+        <v>-7.12245735822212</v>
       </c>
     </row>
     <row r="396">
@@ -11995,10 +11995,10 @@
         <v>9</v>
       </c>
       <c r="F396" t="n">
-        <v>10.8136120228019</v>
+        <v>10.7949646490774</v>
       </c>
       <c r="G396" t="n">
-        <v>-5.05855366189729</v>
+        <v>-5.07720103562173</v>
       </c>
     </row>
     <row r="397">
@@ -12018,10 +12018,10 @@
         <v>9</v>
       </c>
       <c r="F397" t="n">
-        <v>9.23161967938087</v>
+        <v>9.23672566371681</v>
       </c>
       <c r="G397" t="n">
-        <v>-6.06771513214906</v>
+        <v>-6.06260914781312</v>
       </c>
     </row>
     <row r="398">
@@ -12041,10 +12041,10 @@
         <v>9</v>
       </c>
       <c r="F398" t="n">
-        <v>9.69637610186092</v>
+        <v>9.64912280701754</v>
       </c>
       <c r="G398" t="n">
-        <v>-4.97091536955426</v>
+        <v>-5.01816866439764</v>
       </c>
     </row>
     <row r="399">
@@ -12064,10 +12064,10 @@
         <v>9</v>
       </c>
       <c r="F399" t="n">
-        <v>8.37903717245582</v>
+        <v>8.36374695863747</v>
       </c>
       <c r="G399" t="n">
-        <v>-9.83122565607985</v>
+        <v>-9.8465158698982</v>
       </c>
     </row>
     <row r="400">
@@ -12087,10 +12087,10 @@
         <v>9</v>
       </c>
       <c r="F400" t="n">
-        <v>12.0511096166779</v>
+        <v>12.0203917359807</v>
       </c>
       <c r="G400" t="n">
-        <v>-4.43182304370199</v>
+        <v>-4.46254092439918</v>
       </c>
     </row>
     <row r="401">
@@ -12110,10 +12110,10 @@
         <v>9</v>
       </c>
       <c r="F401" t="n">
-        <v>10.9662576687117</v>
+        <v>10.8745247148289</v>
       </c>
       <c r="G401" t="n">
-        <v>-3.51236198620207</v>
+        <v>-3.60409494008483</v>
       </c>
     </row>
     <row r="402">
@@ -12133,10 +12133,10 @@
         <v>9</v>
       </c>
       <c r="F402" t="n">
-        <v>9.34040590405904</v>
+        <v>9.31034482758621</v>
       </c>
       <c r="G402" t="n">
-        <v>-5.18576425964859</v>
+        <v>-5.21582533612142</v>
       </c>
     </row>
     <row r="403">
@@ -12156,10 +12156,10 @@
         <v>9</v>
       </c>
       <c r="F403" t="n">
-        <v>8.23940924990284</v>
+        <v>8.24261275272162</v>
       </c>
       <c r="G403" t="n">
-        <v>-5.25108203377387</v>
+        <v>-5.24787853095509</v>
       </c>
     </row>
     <row r="404">
@@ -12179,10 +12179,10 @@
         <v>9</v>
       </c>
       <c r="F404" t="n">
-        <v>8.9749430523918</v>
+        <v>8.95861755343338</v>
       </c>
       <c r="G404" t="n">
-        <v>-6.77848160514245</v>
+        <v>-6.79480710410087</v>
       </c>
     </row>
     <row r="405">
@@ -12202,10 +12202,10 @@
         <v>9</v>
       </c>
       <c r="F405" t="n">
-        <v>10.2124833997344</v>
+        <v>10.1746493781424</v>
       </c>
       <c r="G405" t="n">
-        <v>-6.51053350533713</v>
+        <v>-6.54836752692916</v>
       </c>
     </row>
     <row r="406">
@@ -12225,10 +12225,10 @@
         <v>9</v>
       </c>
       <c r="F406" t="n">
-        <v>17.3500562791446</v>
+        <v>17.3208122642267</v>
       </c>
       <c r="G406" t="n">
-        <v>-5.08810626502505</v>
+        <v>-5.11735027994295</v>
       </c>
     </row>
     <row r="407">
@@ -12248,10 +12248,10 @@
         <v>9</v>
       </c>
       <c r="F407" t="n">
-        <v>11.3288989527314</v>
+        <v>11.3184870979145</v>
       </c>
       <c r="G407" t="n">
-        <v>-6.74364727770958</v>
+        <v>-6.75405913252651</v>
       </c>
     </row>
     <row r="408">
@@ -12271,10 +12271,10 @@
         <v>9</v>
       </c>
       <c r="F408" t="n">
-        <v>16.3602413099684</v>
+        <v>16.3063707945598</v>
       </c>
       <c r="G408" t="n">
-        <v>-7.44660086939244</v>
+        <v>-7.50047138480106</v>
       </c>
     </row>
     <row r="409">
@@ -12294,10 +12294,10 @@
         <v>9</v>
       </c>
       <c r="F409" t="n">
-        <v>12.1053919569296</v>
+        <v>12.0945395273024</v>
       </c>
       <c r="G409" t="n">
-        <v>-6.99582006888497</v>
+        <v>-7.00667249851221</v>
       </c>
     </row>
     <row r="410">
@@ -12317,10 +12317,10 @@
         <v>9</v>
       </c>
       <c r="F410" t="n">
-        <v>9.4197437829691</v>
+        <v>9.39143501126972</v>
       </c>
       <c r="G410" t="n">
-        <v>-5.64766303701504</v>
+        <v>-5.67597180871442</v>
       </c>
     </row>
     <row r="411">
@@ -12340,10 +12340,10 @@
         <v>9</v>
       </c>
       <c r="F411" t="n">
-        <v>19.4864422743271</v>
+        <v>19.4123456790123</v>
       </c>
       <c r="G411" t="n">
-        <v>-5.65841822136363</v>
+        <v>-5.73251481667835</v>
       </c>
     </row>
     <row r="412">
@@ -12363,10 +12363,10 @@
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>14.5706487507873</v>
+        <v>14.5097219318419</v>
       </c>
       <c r="G412" t="n">
-        <v>-6.82412598692097</v>
+        <v>-6.88505280586635</v>
       </c>
     </row>
     <row r="413">
@@ -12386,10 +12386,10 @@
         <v>9</v>
       </c>
       <c r="F413" t="n">
-        <v>14.5433724592041</v>
+        <v>14.4894466628637</v>
       </c>
       <c r="G413" t="n">
-        <v>-7.85320386033939</v>
+        <v>-7.90712965667985</v>
       </c>
     </row>
     <row r="414">
@@ -12409,10 +12409,10 @@
         <v>9</v>
       </c>
       <c r="F414" t="n">
-        <v>10.0575245871219</v>
+        <v>10.0184842883549</v>
       </c>
       <c r="G414" t="n">
-        <v>-7.03665986559005</v>
+        <v>-7.07570016435707</v>
       </c>
     </row>
     <row r="415">
@@ -12432,10 +12432,10 @@
         <v>9</v>
       </c>
       <c r="F415" t="n">
-        <v>10.3154732098147</v>
+        <v>10.2794411177645</v>
       </c>
       <c r="G415" t="n">
-        <v>-8.19249945533334</v>
+        <v>-8.2285315473836</v>
       </c>
     </row>
     <row r="416">
@@ -12455,10 +12455,10 @@
         <v>9</v>
       </c>
       <c r="F416" t="n">
-        <v>8.51752021563342</v>
+        <v>8.49005910800645</v>
       </c>
       <c r="G416" t="n">
-        <v>-5.09592516251784</v>
+        <v>-5.12338627014481</v>
       </c>
     </row>
     <row r="417">
@@ -12501,10 +12501,10 @@
         <v>9</v>
       </c>
       <c r="F418" t="n">
-        <v>13.0401034928849</v>
+        <v>13.0030959752322</v>
       </c>
       <c r="G418" t="n">
-        <v>-5.04716185465445</v>
+        <v>-5.08416937230712</v>
       </c>
     </row>
     <row r="419">
@@ -12524,10 +12524,10 @@
         <v>9</v>
       </c>
       <c r="F419" t="n">
-        <v>11.472121941436</v>
+        <v>11.4171656686627</v>
       </c>
       <c r="G419" t="n">
-        <v>-3.62221768120549</v>
+        <v>-3.67717395397883</v>
       </c>
     </row>
     <row r="420">
@@ -12547,10 +12547,10 @@
         <v>9</v>
       </c>
       <c r="F420" t="n">
-        <v>12.5845460135274</v>
+        <v>12.5254997960016</v>
       </c>
       <c r="G420" t="n">
-        <v>-5.3569838222756</v>
+        <v>-5.41603003980133</v>
       </c>
     </row>
     <row r="421">
@@ -12570,10 +12570,10 @@
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>12.2053315708306</v>
+        <v>12.1517876727352</v>
       </c>
       <c r="G421" t="n">
-        <v>-5.51875964614842</v>
+        <v>-5.57230354424375</v>
       </c>
     </row>
     <row r="422">
@@ -12593,10 +12593,10 @@
         <v>9</v>
       </c>
       <c r="F422" t="n">
-        <v>21.3709677419355</v>
+        <v>21.2637913741224</v>
       </c>
       <c r="G422" t="n">
-        <v>-5.02104224558012</v>
+        <v>-5.12821861339324</v>
       </c>
     </row>
   </sheetData>
